--- a/산업분류 최종/최종 분류.xlsx
+++ b/산업분류 최종/최종 분류.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/산업분류 최종/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F56DAF0-F2F9-3840-84F7-66069C20D928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537877BD-6C6A-F448-A000-52F3913DD3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48080" yWindow="-3600" windowWidth="19120" windowHeight="21600" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="최종 분류표(21)" sheetId="1" r:id="rId1"/>
     <sheet name="공간정보산업 특수분류 체계 통계청 연결" sheetId="2" r:id="rId2"/>
-    <sheet name="공간정보산업 특수분류 산업연관표 연결" sheetId="3" r:id="rId3"/>
-    <sheet name="소분류별 연도별 전체 매출액 및 공간정보 관련 매출액" sheetId="5" r:id="rId4"/>
+    <sheet name="공간정보산업 특수분류 산업연관표 연결(수정 전)" sheetId="3" r:id="rId3"/>
+    <sheet name="공간정보산업 특수분류 체계 통계청 및 산업연관표 연결" sheetId="7" r:id="rId4"/>
+    <sheet name="소분류별 연도별 전체 매출액 및 공간정보 관련 매출액" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="273">
   <si>
     <t>농림어업</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -401,18 +402,6 @@
   <si>
     <t>기본분류 구분</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>094, 197-199,  203-205</t>
-  </si>
-  <si>
-    <t>373-374</t>
-  </si>
-  <si>
-    <t>323-327</t>
-  </si>
-  <si>
-    <t>348-351</t>
   </si>
   <si>
     <t>035-268</t>
@@ -1000,6 +989,95 @@
   </si>
   <si>
     <t>출처) 통계청 공간정보산업 특수분류(개정, 19년 8월), 2021년 공간정보산업조사 통계보고서</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>측정 및 분석기기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진기 및 영사기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 광학기기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄 및 기록매체 복제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>도소매 및 상품중개서비스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>신문 및 출판</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 개발 및 공급</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 IT서비스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보제공서비스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구개발(국공립)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구개발(비영리)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구개발(산업)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 과학기술서비스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공학 관련 서비스 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업 및 전문가단체</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>건축</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>･토목 관련 서비스</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>094, 204, 206-207</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>323, 325-327</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>341-343, 348-350</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1429,7 +1507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1681,6 +1759,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1810,7 +2071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1869,34 +2130,64 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1910,9 +2201,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1925,38 +2213,104 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2281,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2295,19 +2649,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="21"/>
       <c r="E1" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -2375,14 +2729,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -2391,20 +2745,20 @@
       <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12" t="s">
@@ -2488,7 +2842,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -2526,10 +2880,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -2538,20 +2892,20 @@
       <c r="D15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>103</v>
+      <c r="E15" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="12" t="s">
@@ -2605,10 +2959,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -2617,20 +2971,20 @@
       <c r="D20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>104</v>
+      <c r="E20" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="12" t="s">
@@ -2642,7 +2996,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -2668,7 +3022,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13" t="s">
-        <v>99</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -2681,7 +3035,7 @@
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -2693,24 +3047,24 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="13" t="s">
-        <v>98</v>
+      <c r="E26" s="13">
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="33" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2721,7 +3075,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AE89C8-ECBA-4E4F-B8BB-93FD7C793116}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -2732,61 +3088,61 @@
     <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="45.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="28"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="48">
-      <c r="A3" s="22">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="22">
+      <c r="B3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="24">
         <v>11</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3" s="22">
+      <c r="D3" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="24">
         <v>110</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>236</v>
+      <c r="F3" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="G3" s="10">
         <v>27211</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="48">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -2795,76 +3151,76 @@
         <v>27302</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="24">
         <v>12</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="D5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="24">
         <v>120</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>109</v>
+      <c r="F5" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="G5" s="10">
         <v>18111</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="10">
         <v>18112</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="10">
         <v>18113</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="10">
         <v>18119</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -2873,60 +3229,60 @@
         <v>18200</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="48">
-      <c r="A10" s="22">
+      <c r="A10" s="24">
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>115</v>
+      <c r="B10" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="C10" s="10">
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E10" s="10">
         <v>210</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G10" s="10">
         <v>46453</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="48">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="22">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24">
         <v>22</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="D11" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="24">
         <v>220</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>118</v>
+      <c r="F11" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="G11" s="10">
         <v>46493</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -2935,7 +3291,7 @@
         <v>46593</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="48">
@@ -2945,50 +3301,50 @@
         <v>23</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E13" s="10">
         <v>230</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G13" s="10">
         <v>46510</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32">
-      <c r="A14" s="22">
+      <c r="A14" s="24">
         <v>3</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="24">
         <v>31</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="D14" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="24">
         <v>310</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>123</v>
+      <c r="F14" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="G14" s="10">
         <v>58113</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -2997,80 +3353,80 @@
         <v>58190</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="48">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="22">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="24">
         <v>32</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="D16" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="24">
         <v>321</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>127</v>
+      <c r="F16" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="G16" s="10">
         <v>58221</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="48">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="10">
         <v>58222</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="22">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="24">
         <v>322</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>130</v>
+      <c r="F18" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="G18" s="10">
         <v>62010</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="48">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="10">
         <v>62021</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="48">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -3079,47 +3435,47 @@
         <v>62090</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="22">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="24">
         <v>33</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>134</v>
+      <c r="D21" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="E21" s="10">
         <v>331</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G21" s="10">
         <v>63120</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="22">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="24">
         <v>332</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>137</v>
+      <c r="F22" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="G22" s="10">
         <v>63111</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="48">
@@ -3133,52 +3489,52 @@
         <v>63991</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="32">
-      <c r="A24" s="22">
+      <c r="A24" s="24">
         <v>4</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="22">
+      <c r="B24" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="24">
         <v>41</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="22">
+      <c r="D24" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="24">
         <v>410</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>141</v>
+      <c r="F24" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="G24" s="10">
         <v>70119</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="32">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="10">
         <v>70129</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="48">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -3187,34 +3543,34 @@
         <v>70130</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="22">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="24">
         <v>42</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="22">
+      <c r="D27" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="24">
         <v>420</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>145</v>
+      <c r="F27" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="G27" s="10">
         <v>72921</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="32">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -3223,34 +3579,34 @@
         <v>72923</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="22">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="24">
         <v>43</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="E29" s="22">
+      <c r="D29" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="24">
         <v>430</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>148</v>
+      <c r="F29" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="G29" s="10">
         <v>72922</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -3259,43 +3615,43 @@
         <v>72924</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="48">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="22">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="24">
         <v>44</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="22">
+      <c r="D31" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="24">
         <v>440</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>151</v>
+      <c r="F31" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="G31" s="10">
         <v>72121</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="48">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="10">
         <v>72122</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="32">
@@ -3309,44 +3665,44 @@
         <v>72129</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="22">
+      <c r="A34" s="24">
         <v>6</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="24">
         <v>60</v>
       </c>
-      <c r="D34" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="22">
+      <c r="D34" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="24">
         <v>600</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="22">
+      <c r="F34" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="24">
         <v>94120</v>
       </c>
-      <c r="H34" s="26" t="s">
-        <v>156</v>
+      <c r="H34" s="28" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="25"/>
@@ -3370,39 +3726,17 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="F31:F33"/>
@@ -3416,22 +3750,44 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3443,7 +3799,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+      <selection activeCell="G23" sqref="F23:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3460,907 +3816,857 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" customHeight="1">
-      <c r="A2" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="43" t="s">
+      <c r="A2" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="21">
+        <v>11</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="33">
+        <v>110</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="35">
+        <v>351</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2" s="30"/>
-    </row>
-    <row r="3" spans="1:10" ht="17" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="19">
-        <v>1</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="19">
-        <v>11</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="41">
-        <v>110</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="40">
-        <v>351</v>
-      </c>
-      <c r="H4" s="41" t="s">
+      <c r="J5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="I4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="3" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="H7" s="35" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="42" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="J8" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="3" t="s">
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
     <row r="10" spans="1:10" ht="64">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E10" s="6">
         <v>120</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="19">
+      <c r="A11" s="21">
         <v>2</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>223</v>
+      <c r="B11" s="38" t="s">
+        <v>219</v>
       </c>
       <c r="C11" s="9">
         <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E11" s="8">
         <v>210</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G11" s="4">
         <v>520</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I11" s="4">
         <v>5200</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="9">
         <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E12" s="8">
         <v>220</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G12" s="4">
         <v>520</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I12" s="4">
         <v>5200</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="9">
         <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E13" s="8">
         <v>230</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G13" s="4">
         <v>520</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I13" s="4">
         <v>5200</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="19">
+      <c r="A14" s="21">
         <v>3</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>224</v>
+      <c r="B14" s="38" t="s">
+        <v>220</v>
       </c>
       <c r="C14" s="9">
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E14" s="8">
         <v>310</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G14" s="4">
         <v>630</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I14" s="4">
         <v>6300</v>
       </c>
       <c r="J14" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="37">
+        <v>321</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="35">
+        <v>621</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="38">
-        <v>321</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15" s="40">
+      <c r="J16" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="37">
+        <v>322</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="35">
         <v>621</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H18" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="H20" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="38">
-        <v>322</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="G18" s="40">
-        <v>621</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="J20" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>215</v>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>211</v>
       </c>
       <c r="E21" s="8">
         <v>331</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G21" s="4">
         <v>610</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="19"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="8">
         <v>332</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G22" s="4">
         <v>610</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="19">
+      <c r="A23" s="21">
         <v>4</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23" s="38">
+      <c r="B23" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="37">
         <v>410</v>
       </c>
-      <c r="F23" s="38" t="s">
-        <v>141</v>
+      <c r="F23" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="G23" s="4">
         <v>721</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35">
+        <v>729</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I23" s="3" t="s">
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40">
-        <v>729</v>
-      </c>
-      <c r="H24" s="40" t="s">
+      <c r="J25" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I24" s="3" t="s">
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21">
         <v>42</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E27" s="38">
+      <c r="D27" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="37">
         <v>420</v>
       </c>
-      <c r="F27" s="38" t="s">
-        <v>145</v>
+      <c r="F27" s="37" t="s">
+        <v>141</v>
       </c>
       <c r="G27" s="4">
         <v>721</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35">
+        <v>729</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I27" s="3" t="s">
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40">
-        <v>729</v>
-      </c>
-      <c r="H28" s="40" t="s">
+      <c r="J29" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I28" s="3" t="s">
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21">
         <v>43</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" s="38">
+      <c r="D31" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="37">
         <v>430</v>
       </c>
-      <c r="F31" s="38" t="s">
-        <v>148</v>
+      <c r="F31" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="G31" s="4">
         <v>721</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35">
+        <v>729</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I31" s="3" t="s">
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40">
-        <v>729</v>
-      </c>
-      <c r="H32" s="40" t="s">
+      <c r="J33" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I32" s="3" t="s">
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21">
         <v>44</v>
       </c>
-      <c r="D35" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E35" s="38">
+      <c r="D35" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" s="37">
         <v>440</v>
       </c>
-      <c r="F35" s="38" t="s">
-        <v>151</v>
+      <c r="F35" s="37" t="s">
+        <v>147</v>
       </c>
       <c r="G35" s="4">
         <v>721</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35">
+        <v>729</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I35" s="3" t="s">
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="40">
-        <v>729</v>
-      </c>
-      <c r="H36" s="40" t="s">
+      <c r="J37" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I36" s="3" t="s">
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="3" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" s="21">
+        <v>6</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="21">
+        <v>60</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" s="37">
+        <v>600</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="35">
+        <v>810</v>
+      </c>
+      <c r="H39" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="I39" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="3" t="s">
+      <c r="J39" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="J38" s="4" t="s">
+    </row>
+    <row r="40" spans="1:10" ht="42" customHeight="1">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="19">
-        <v>6</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="C39" s="19">
-        <v>60</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="E39" s="38">
-        <v>600</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="G39" s="40">
-        <v>810</v>
-      </c>
-      <c r="H39" s="40" t="s">
+      <c r="J40" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="42" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="G2:H3"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="B23:B38"/>
     <mergeCell ref="A23:A38"/>
@@ -4376,6 +4682,56 @@
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G2:H3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4383,6 +4739,874 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3553689-B5DE-154F-BAF5-FB3EEFBBFC6E}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" thickBot="1">
+      <c r="A1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="68" customHeight="1">
+      <c r="A2" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="69">
+        <v>1</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="50">
+        <v>11</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="50">
+        <v>110</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="51">
+        <v>27211</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="57">
+        <v>3612</v>
+      </c>
+      <c r="J3" s="70" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="69"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="50">
+        <v>27302</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="57">
+        <v>3691</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="69"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="57">
+        <v>3692</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="69"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50">
+        <v>12</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="50">
+        <v>120</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="51">
+        <v>18111</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="53">
+        <v>1500</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="69"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="51">
+        <v>18112</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="71"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="69"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="51">
+        <v>18113</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="71"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="69"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="51">
+        <v>18119</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="71"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="69"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="51">
+        <v>18200</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="71"/>
+    </row>
+    <row r="11" spans="1:10" ht="32">
+      <c r="A11" s="69">
+        <v>2</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="51">
+        <v>21</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="51">
+        <v>210</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="51">
+        <v>46453</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="53">
+        <v>5200</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="72"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50">
+        <v>22</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="50">
+        <v>220</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="51">
+        <v>46493</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="71"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="72"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="51">
+        <v>46593</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="71"/>
+    </row>
+    <row r="14" spans="1:10" ht="32">
+      <c r="A14" s="72"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="51">
+        <v>23</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="51">
+        <v>230</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="51">
+        <v>46510</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="71"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="69">
+        <v>3</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="50">
+        <v>31</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="50">
+        <v>310</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="51">
+        <v>58113</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="53">
+        <v>6300</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="72"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="51">
+        <v>58190</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="53"/>
+      <c r="J16" s="71"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="72"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50">
+        <v>32</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="50">
+        <v>321</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="51">
+        <v>58221</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="53">
+        <v>6212</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="72"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="51">
+        <v>58222</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="71"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="72"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50">
+        <v>322</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="51">
+        <v>62010</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="71"/>
+    </row>
+    <row r="20" spans="1:10" ht="48" customHeight="1">
+      <c r="A20" s="72"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="51">
+        <v>62021</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20" s="71"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="72"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="51">
+        <v>62090</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="57">
+        <v>6290</v>
+      </c>
+      <c r="J21" s="70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="72"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50">
+        <v>33</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="51">
+        <v>331</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="51">
+        <v>63120</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="57">
+        <v>6100</v>
+      </c>
+      <c r="J22" s="70" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="72"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50">
+        <v>332</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="51">
+        <v>63111</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="53">
+        <v>6212</v>
+      </c>
+      <c r="J23" s="73" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="58" customHeight="1">
+      <c r="A24" s="72"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="51">
+        <v>63991</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="71"/>
+    </row>
+    <row r="25" spans="1:10" ht="23" customHeight="1">
+      <c r="A25" s="69">
+        <v>4</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="50">
+        <v>41</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="50">
+        <v>410</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="51">
+        <v>70119</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="58">
+        <v>7001</v>
+      </c>
+      <c r="J25" s="74" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="32" customHeight="1">
+      <c r="A26" s="72"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="51">
+        <v>70129</v>
+      </c>
+      <c r="H26" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" s="59">
+        <v>7002</v>
+      </c>
+      <c r="J26" s="74" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="72"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="51">
+        <v>70130</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="60">
+        <v>7003</v>
+      </c>
+      <c r="J27" s="74" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="72"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50">
+        <v>42</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="50">
+        <v>420</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="51">
+        <v>72921</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="53">
+        <v>7210</v>
+      </c>
+      <c r="J28" s="71" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="72"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="51">
+        <v>72923</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" s="53"/>
+      <c r="J29" s="71"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="72"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50">
+        <v>43</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="50">
+        <v>430</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="51">
+        <v>72922</v>
+      </c>
+      <c r="H30" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="53">
+        <v>7292</v>
+      </c>
+      <c r="J30" s="71" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="72"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="51">
+        <v>72924</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="53"/>
+      <c r="J31" s="71"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="72"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50">
+        <v>44</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="50">
+        <v>440</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="51">
+        <v>72121</v>
+      </c>
+      <c r="H32" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="I32" s="57">
+        <v>7210</v>
+      </c>
+      <c r="J32" s="70" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="72"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="51">
+        <v>72122</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" s="53">
+        <v>7291</v>
+      </c>
+      <c r="J33" s="71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="72"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="51">
+        <v>72129</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="53"/>
+      <c r="J34" s="71"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" thickBot="1">
+      <c r="A35" s="75">
+        <v>6</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="76">
+        <v>60</v>
+      </c>
+      <c r="D35" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="76">
+        <v>600</v>
+      </c>
+      <c r="F35" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="76">
+        <v>94120</v>
+      </c>
+      <c r="H35" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="78">
+        <v>8101</v>
+      </c>
+      <c r="J35" s="79" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D83ED3-3841-8540-A1F3-FE4FD08BBB6E}">
   <dimension ref="A1:U30"/>
   <sheetViews>
@@ -4399,33 +5623,33 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
+      <c r="A2" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
       <c r="P2" s="47" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q2" s="47"/>
       <c r="R2" s="47"/>
@@ -4434,70 +5658,70 @@
       <c r="U2" s="47"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="J3" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="P3" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="16">
         <v>201408</v>
       </c>
@@ -4556,13 +5780,13 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="16">
         <v>13333</v>
       </c>
@@ -4621,10 +5845,10 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="19"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D6" s="16">
         <v>12417</v>
@@ -4684,10 +5908,10 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="19"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D7" s="16">
         <v>916</v>
@@ -4739,11 +5963,11 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="16">
         <v>25059</v>
       </c>
@@ -4802,10 +6026,10 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D9" s="16">
         <v>307</v>
@@ -4865,10 +6089,10 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D10" s="16">
         <v>16133</v>
@@ -4928,10 +6152,10 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="19"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D11" s="16">
         <v>8619</v>
@@ -4991,11 +6215,11 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="16">
         <v>57939</v>
       </c>
@@ -5054,10 +6278,10 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D13" s="16">
         <v>777</v>
@@ -5117,10 +6341,10 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="19"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D14" s="16">
         <v>32746</v>
@@ -5180,10 +6404,10 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="19"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D15" s="16">
         <v>20162</v>
@@ -5243,10 +6467,10 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="19"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D16" s="16">
         <v>775</v>
@@ -5306,10 +6530,10 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="19"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D17" s="16">
         <v>3479</v>
@@ -5369,11 +6593,11 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="16">
         <v>105001</v>
       </c>
@@ -5432,10 +6656,10 @@
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="19"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D19" s="16">
         <v>37417</v>
@@ -5495,10 +6719,10 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="19"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D20" s="16">
         <v>10408</v>
@@ -5558,10 +6782,10 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="19"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D21" s="16">
         <v>2360</v>
@@ -5621,10 +6845,10 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="19"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D22" s="16">
         <v>54816</v>
@@ -5684,11 +6908,11 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="14" customHeight="1">
-      <c r="A23" s="19"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="C23" s="20"/>
+        <v>222</v>
+      </c>
+      <c r="C23" s="19"/>
       <c r="D23" s="16">
         <v>77</v>
       </c>
@@ -5747,10 +6971,10 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="19"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D24" s="16">
         <v>77</v>
@@ -5811,7 +7035,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="C26" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -5819,17 +7043,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산업분류 최종/최종 분류.xlsx
+++ b/산업분류 최종/최종 분류.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/산업분류 최종/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\김동요\jupyter\프로젝트\산업분류 최종\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537877BD-6C6A-F448-A000-52F3913DD3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48080" yWindow="-3600" windowWidth="19120" windowHeight="21600" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48075" yWindow="-3600" windowWidth="19125" windowHeight="21600" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="최종 분류표(21)" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="공간정보산업 특수분류 체계 통계청 및 산업연관표 연결" sheetId="7" r:id="rId4"/>
     <sheet name="소분류별 연도별 전체 매출액 및 공간정보 관련 매출액" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,21 +38,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="278">
   <si>
     <t>농림어업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>제조업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>도매 및 소매업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙박 및 음식점업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 및 통신업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>부동산 및 임대업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업서비스업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공행정, 국방 및 사회보장행정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화 및 기타서비스업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간정보 관련 제조업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간정보 관련 도매업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간정보 관련 출판 및 정보서비스업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간정보 관련 기술서비스업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공간정보 관련 협회 및 단체  </t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>광업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>제조업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기, 가스, 증기 및 수도사업</t>
+    <t>C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기, 가스, 증기 및 공기 조절 공급업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>농업, 임업 및 어업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수도, 하수 및 폐기물 처리, 원료 재생업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -61,19 +142,32 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>G</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>도매 및 소매업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>운수업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>운수 및 창고업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
   <si>
     <t>숙박 및 음식점업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>정보 및 통신업</t>
+    <t>J</t>
+  </si>
+  <si>
+    <t>정보통신업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -81,125 +175,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>부동산 및 임대업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업서비스업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공공행정, 국방 및 사회보장행정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육서비스업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>보건업 및 사회복지서비스업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화 및 기타서비스업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간정보 관련 제조업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간정보 관련 도매업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간정보 관련 출판 및 정보서비스업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간정보 관련 기술서비스업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공간정보 관련 협회 및 단체  </t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>광업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기, 가스, 증기 및 공기 조절 공급업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>농업, 임업 및 어업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>수도, 하수 및 폐기물 처리, 원료 재생업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>건설업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>도매 및 소매업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>운수 및 창고업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>숙박 및 음식점업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>정보통신업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>금융 및 보험업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -376,28 +351,16 @@
     <t>269-281</t>
   </si>
   <si>
-    <t>282-296</t>
-  </si>
-  <si>
     <t>298-311</t>
   </si>
   <si>
-    <t>312-316</t>
-  </si>
-  <si>
     <t>330-336</t>
   </si>
   <si>
-    <t>337-340</t>
-  </si>
-  <si>
     <t>356-358</t>
   </si>
   <si>
     <t>359-361</t>
-  </si>
-  <si>
-    <t>362-366</t>
   </si>
   <si>
     <t>기본분류 구분</t>
@@ -1080,11 +1043,71 @@
     <t>341-343, 348-350</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>광업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육서비스업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간정보 관련 도매업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기, 가스, 증기 및 수도사업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간정보 관련 기술서비스업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>362-366</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>312-316</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융 및 보험업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>운수업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>282-296</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>337-340</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간정보 관련 출판 및 정보서비스업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간정보 관련 협회 및 단체</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>보건업 및 사회복지서비스업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ &quot;%&quot;"/>
   </numFmts>
@@ -2129,14 +2152,71 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2144,20 +2224,41 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2174,143 +2275,65 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2632,163 +2655,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="21"/>
+      <c r="A1" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="33"/>
       <c r="E1" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>3</v>
+      <c r="A6" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>87</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>88</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9" s="14">
         <v>297</v>
@@ -2796,215 +2819,215 @@
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>90</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>9</v>
+        <v>270</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>92</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>11</v>
+      <c r="A15" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>99</v>
+        <v>40</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>95</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>15</v>
+      <c r="A20" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="20"/>
+        <v>51</v>
+      </c>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>17</v>
+        <v>265</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -3014,36 +3037,36 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -3054,17 +3077,17 @@
     <row r="27" spans="1:5" ht="33" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3072,647 +3095,647 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AE89C8-ECBA-4E4F-B8BB-93FD7C793116}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="33.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="40" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" ht="48">
-      <c r="A3" s="24">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" ht="27">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="24">
+      <c r="B3" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="36">
         <v>11</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="24">
+      <c r="D3" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="36">
         <v>110</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>232</v>
+      <c r="F3" s="36" t="s">
+        <v>222</v>
       </c>
       <c r="G3" s="10">
         <v>27211</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="48">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="10">
         <v>27302</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="24">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="36">
         <v>12</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="24">
+      <c r="D5" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="36">
         <v>120</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>105</v>
+      <c r="F5" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="G5" s="10">
         <v>18111</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="10">
         <v>18112</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="10">
         <v>18113</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="10">
         <v>18119</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="32">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="10">
         <v>18200</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="48">
-      <c r="A10" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27">
+      <c r="A10" s="36">
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>111</v>
+      <c r="B10" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="10">
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E10" s="10">
         <v>210</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G10" s="10">
         <v>46453</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="48">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="24">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="36">
         <v>22</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="D11" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="36">
         <v>220</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>114</v>
+      <c r="F11" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="G11" s="10">
         <v>46493</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="32">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="10">
         <v>46593</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="48">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="27">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="10">
         <v>23</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E13" s="10">
         <v>230</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G13" s="10">
         <v>46510</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="32">
-      <c r="A14" s="24">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="36">
         <v>3</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="24">
+      <c r="B14" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="36">
         <v>31</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="24">
+      <c r="D14" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="36">
         <v>310</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>119</v>
+      <c r="F14" s="36" t="s">
+        <v>109</v>
       </c>
       <c r="G14" s="10">
         <v>58113</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="32">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="10">
         <v>58190</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="48">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="24">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="36">
         <v>32</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="24">
+      <c r="D16" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="36">
         <v>321</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>123</v>
+      <c r="F16" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="G16" s="10">
         <v>58221</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="48">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="10">
         <v>58222</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="32">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="24">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="36">
         <v>322</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>126</v>
+      <c r="F18" s="36" t="s">
+        <v>116</v>
       </c>
       <c r="G18" s="10">
         <v>62010</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="48">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="27">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="10">
         <v>62021</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="48">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="27">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="10">
         <v>62090</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="48">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="24">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="27">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="36">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>130</v>
+      <c r="D21" s="36" t="s">
+        <v>120</v>
       </c>
       <c r="E21" s="10">
         <v>331</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G21" s="10">
         <v>63120</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="24">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="36">
         <v>332</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>133</v>
+      <c r="F22" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="G22" s="10">
         <v>63111</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="48">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="10">
         <v>63991</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="32">
-      <c r="A24" s="24">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="36">
         <v>4</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="24">
+      <c r="B24" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="36">
         <v>41</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="24">
+      <c r="D24" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="36">
         <v>410</v>
       </c>
-      <c r="F24" s="24" t="s">
-        <v>137</v>
+      <c r="F24" s="36" t="s">
+        <v>127</v>
       </c>
       <c r="G24" s="10">
         <v>70119</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="32">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="10">
         <v>70129</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="48">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="10">
         <v>70130</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="24">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="36">
         <v>42</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="24">
+      <c r="D27" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="36">
         <v>420</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>141</v>
+      <c r="F27" s="36" t="s">
+        <v>131</v>
       </c>
       <c r="G27" s="10">
         <v>72921</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="32">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="10">
         <v>72923</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="24">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="36">
         <v>43</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="E29" s="24">
+      <c r="D29" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="36">
         <v>430</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>144</v>
+      <c r="F29" s="36" t="s">
+        <v>134</v>
       </c>
       <c r="G29" s="10">
         <v>72922</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="10">
         <v>72924</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="48">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="24">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="36">
         <v>44</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="24">
+      <c r="D31" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="36">
         <v>440</v>
       </c>
-      <c r="F31" s="24" t="s">
-        <v>147</v>
+      <c r="F31" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="G31" s="10">
         <v>72121</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="48">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="10">
         <v>72122</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="32">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="10">
         <v>72129</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="24">
+      <c r="A34" s="36">
         <v>6</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="24">
+      <c r="B34" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="36">
         <v>60</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="24">
+      <c r="D34" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="36">
         <v>600</v>
       </c>
-      <c r="F34" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="G34" s="24">
+      <c r="F34" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="36">
         <v>94120</v>
       </c>
-      <c r="H34" s="28" t="s">
-        <v>152</v>
+      <c r="H34" s="39" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2"/>
@@ -3726,17 +3749,41 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="F31:F33"/>
@@ -3753,41 +3800,17 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="F34:F36"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3795,878 +3818,927 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABA8F6A-62C6-4246-A783-DCC256FD3A01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="F23:G30"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="H4:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="56.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="G2" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="44"/>
+      <c r="I2" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="33">
+        <v>11</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="59">
+        <v>110</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="54">
+        <v>351</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="1:10" ht="17" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="21">
-        <v>1</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="21">
-        <v>11</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="33">
-        <v>110</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="35">
-        <v>351</v>
-      </c>
-      <c r="H4" s="33" t="s">
+      <c r="J7" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="3" t="s">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="3" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="64">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+    <row r="10" spans="1:10" ht="54">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E10" s="6">
         <v>120</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="21">
+      <c r="A11" s="33">
         <v>2</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>219</v>
+      <c r="B11" s="47" t="s">
+        <v>209</v>
       </c>
       <c r="C11" s="9">
         <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E11" s="8">
         <v>210</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G11" s="4">
         <v>520</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I11" s="4">
         <v>5200</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="9">
         <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E12" s="8">
         <v>220</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G12" s="4">
         <v>520</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I12" s="4">
         <v>5200</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="9">
         <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E13" s="8">
         <v>230</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G13" s="4">
         <v>520</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I13" s="4">
         <v>5200</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="21">
+      <c r="A14" s="33">
         <v>3</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>220</v>
+      <c r="B14" s="47" t="s">
+        <v>210</v>
       </c>
       <c r="C14" s="9">
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E14" s="8">
         <v>310</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G14" s="4">
         <v>630</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I14" s="4">
         <v>6300</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="37">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="52">
         <v>321</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="G15" s="35">
+      <c r="F15" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="54">
         <v>621</v>
       </c>
-      <c r="H15" s="35" t="s">
-        <v>176</v>
+      <c r="H15" s="54" t="s">
+        <v>166</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="37">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="52">
         <v>322</v>
       </c>
-      <c r="F18" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="G18" s="35">
+      <c r="F18" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="54">
         <v>621</v>
       </c>
-      <c r="H18" s="35" t="s">
-        <v>176</v>
+      <c r="H18" s="54" t="s">
+        <v>166</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>211</v>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>201</v>
       </c>
       <c r="E21" s="8">
         <v>331</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G21" s="4">
         <v>610</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="21"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="8">
         <v>332</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G22" s="4">
         <v>610</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="21">
+      <c r="A23" s="33">
         <v>4</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="37">
+      <c r="B23" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="52">
         <v>410</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>137</v>
+      <c r="F23" s="52" t="s">
+        <v>127</v>
       </c>
       <c r="G23" s="4">
         <v>721</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54">
         <v>729</v>
       </c>
-      <c r="H24" s="35" t="s">
-        <v>188</v>
+      <c r="H24" s="54" t="s">
+        <v>178</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33">
         <v>42</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" s="37">
+      <c r="D27" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="52">
         <v>420</v>
       </c>
-      <c r="F27" s="37" t="s">
-        <v>141</v>
+      <c r="F27" s="52" t="s">
+        <v>131</v>
       </c>
       <c r="G27" s="4">
         <v>721</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54">
         <v>729</v>
       </c>
-      <c r="H28" s="35" t="s">
-        <v>188</v>
+      <c r="H28" s="54" t="s">
+        <v>178</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33">
         <v>43</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="37">
+      <c r="D31" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="52">
         <v>430</v>
       </c>
-      <c r="F31" s="37" t="s">
-        <v>144</v>
+      <c r="F31" s="52" t="s">
+        <v>134</v>
       </c>
       <c r="G31" s="4">
         <v>721</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54">
         <v>729</v>
       </c>
-      <c r="H32" s="35" t="s">
-        <v>188</v>
+      <c r="H32" s="54" t="s">
+        <v>178</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
       <c r="I34" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33">
         <v>44</v>
       </c>
-      <c r="D35" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="E35" s="37">
+      <c r="D35" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="52">
         <v>440</v>
       </c>
-      <c r="F35" s="37" t="s">
-        <v>147</v>
+      <c r="F35" s="52" t="s">
+        <v>137</v>
       </c>
       <c r="G35" s="4">
         <v>721</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54">
+        <v>729</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="33">
+        <v>6</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="33">
+        <v>60</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="52">
+        <v>600</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="54">
+        <v>810</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J39" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35">
-        <v>729</v>
-      </c>
-      <c r="H36" s="35" t="s">
+    </row>
+    <row r="40" spans="1:10" ht="42" customHeight="1">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J40" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="21">
-        <v>6</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" s="21">
-        <v>60</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E39" s="37">
-        <v>600</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="35">
-        <v>810</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="42" customHeight="1">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="B23:B38"/>
     <mergeCell ref="A23:A38"/>
@@ -4683,55 +4755,6 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B14:B22"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="G2:H3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4739,780 +4762,780 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3553689-B5DE-154F-BAF5-FB3EEFBBFC6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="33.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1">
       <c r="A1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="68" customHeight="1">
-      <c r="A2" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="68.099999999999994" customHeight="1">
+      <c r="A2" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="74"/>
+      <c r="E2" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="77"/>
+      <c r="G2" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="77"/>
+      <c r="I2" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="71">
+        <v>1</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="63">
+        <v>11</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="63">
+        <v>110</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="19">
+        <v>27211</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="22">
+        <v>3612</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="71"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="63">
+        <v>27302</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="22">
+        <v>3691</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="71"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="22">
+        <v>3692</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="71"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63">
+        <v>12</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="63">
+        <v>120</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="19">
+        <v>18111</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="61">
+        <v>1500</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="71"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="19">
+        <v>18112</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="71"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="19">
+        <v>18113</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="71"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="19">
+        <v>18119</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="71"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="19">
+        <v>18200</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+    </row>
+    <row r="11" spans="1:10" ht="27">
+      <c r="A11" s="71">
+        <v>2</v>
+      </c>
+      <c r="B11" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="65" t="s">
+      <c r="C11" s="19">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="68"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="69">
-        <v>1</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="E11" s="19">
+        <v>210</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="19">
+        <v>46453</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="50">
-        <v>11</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="50">
-        <v>110</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="G3" s="51">
-        <v>27211</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="57">
-        <v>3612</v>
-      </c>
-      <c r="J3" s="70" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="69"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="50">
-        <v>27302</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" s="57">
-        <v>3691</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="69"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="57">
-        <v>3692</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="69"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50">
-        <v>12</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="50">
-        <v>120</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="51">
-        <v>18111</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="53">
-        <v>1500</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="69"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="51">
-        <v>18112</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="71"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="69"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="51">
-        <v>18113</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="71"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="69"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="51">
-        <v>18119</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="71"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="69"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="51">
-        <v>18200</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="71"/>
-    </row>
-    <row r="11" spans="1:10" ht="32">
-      <c r="A11" s="69">
-        <v>2</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="51">
-        <v>21</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="51">
-        <v>210</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="51">
-        <v>46453</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="53">
+      <c r="I11" s="61">
         <v>5200</v>
       </c>
-      <c r="J11" s="71" t="s">
-        <v>258</v>
+      <c r="J11" s="62" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="72"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50">
+      <c r="B12" s="68"/>
+      <c r="C12" s="63">
         <v>22</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="50">
+      <c r="D12" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="63">
         <v>220</v>
       </c>
-      <c r="F12" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="51">
+      <c r="F12" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="19">
         <v>46493</v>
       </c>
-      <c r="H12" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="71"/>
+      <c r="H12" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="72"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="51">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="19">
         <v>46593</v>
       </c>
-      <c r="H13" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="71"/>
-    </row>
-    <row r="14" spans="1:10" ht="32">
+      <c r="H13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
+    </row>
+    <row r="14" spans="1:10" ht="27">
       <c r="A14" s="72"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="51">
+      <c r="B14" s="68"/>
+      <c r="C14" s="19">
         <v>23</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="51">
+      <c r="D14" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="19">
         <v>230</v>
       </c>
-      <c r="F14" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="51">
+      <c r="F14" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="19">
         <v>46510</v>
       </c>
-      <c r="H14" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="71"/>
+      <c r="H14" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="69">
+      <c r="A15" s="71">
         <v>3</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="50">
+      <c r="B15" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="63">
         <v>31</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="50">
+      <c r="D15" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="63">
         <v>310</v>
       </c>
-      <c r="F15" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="51">
+      <c r="F15" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="19">
         <v>58113</v>
       </c>
-      <c r="H15" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="53">
+      <c r="H15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="61">
         <v>6300</v>
       </c>
-      <c r="J15" s="71" t="s">
-        <v>259</v>
+      <c r="J15" s="62" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="72"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="51">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="19">
         <v>58190</v>
       </c>
-      <c r="H16" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="71"/>
+      <c r="H16" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="72"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50">
+      <c r="B17" s="68"/>
+      <c r="C17" s="63">
         <v>32</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="50">
+      <c r="D17" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="63">
         <v>321</v>
       </c>
-      <c r="F17" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="51">
+      <c r="F17" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="19">
         <v>58221</v>
       </c>
-      <c r="H17" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" s="53">
+      <c r="H17" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="61">
         <v>6212</v>
       </c>
-      <c r="J17" s="71" t="s">
-        <v>260</v>
+      <c r="J17" s="62" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="72"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="51">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="19">
         <v>58222</v>
       </c>
-      <c r="H18" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="71"/>
+      <c r="H18" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="72"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="63">
         <v>322</v>
       </c>
-      <c r="F19" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="51">
+      <c r="F19" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="19">
         <v>62010</v>
       </c>
-      <c r="H19" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="71"/>
+      <c r="H19" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1">
       <c r="A20" s="72"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="51">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="19">
         <v>62021</v>
       </c>
-      <c r="H20" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="71"/>
+      <c r="H20" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="72"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="51">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="19">
         <v>62090</v>
       </c>
-      <c r="H21" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="57">
+      <c r="H21" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="22">
         <v>6290</v>
       </c>
-      <c r="J21" s="70" t="s">
-        <v>261</v>
+      <c r="J21" s="26" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="72"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50">
+      <c r="B22" s="68"/>
+      <c r="C22" s="63">
         <v>33</v>
       </c>
-      <c r="D22" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="51">
+      <c r="D22" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="19">
         <v>331</v>
       </c>
-      <c r="F22" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="51">
+      <c r="F22" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="19">
         <v>63120</v>
       </c>
-      <c r="H22" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="57">
+      <c r="H22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="22">
         <v>6100</v>
       </c>
-      <c r="J22" s="70" t="s">
-        <v>262</v>
+      <c r="J22" s="26" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="72"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="63">
         <v>332</v>
       </c>
-      <c r="F23" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="51">
+      <c r="F23" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="19">
         <v>63111</v>
       </c>
-      <c r="H23" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="53">
+      <c r="H23" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="61">
         <v>6212</v>
       </c>
-      <c r="J23" s="73" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="58" customHeight="1">
+      <c r="J23" s="64" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="57.95" customHeight="1">
       <c r="A24" s="72"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="51">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="19">
         <v>63991</v>
       </c>
-      <c r="H24" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="71"/>
-    </row>
-    <row r="25" spans="1:10" ht="23" customHeight="1">
-      <c r="A25" s="69">
+      <c r="H24" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="61"/>
+      <c r="J24" s="62"/>
+    </row>
+    <row r="25" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A25" s="71">
         <v>4</v>
       </c>
-      <c r="B25" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="50">
+      <c r="B25" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="63">
         <v>41</v>
       </c>
-      <c r="D25" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="50">
+      <c r="D25" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="63">
         <v>410</v>
       </c>
-      <c r="F25" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="51">
+      <c r="F25" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="19">
         <v>70119</v>
       </c>
-      <c r="H25" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" s="58">
+      <c r="H25" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="23">
         <v>7001</v>
       </c>
-      <c r="J25" s="74" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="32" customHeight="1">
+      <c r="J25" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="32.1" customHeight="1">
       <c r="A26" s="72"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="51">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="19">
         <v>70129</v>
       </c>
-      <c r="H26" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" s="59">
+      <c r="H26" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="24">
         <v>7002</v>
       </c>
-      <c r="J26" s="74" t="s">
-        <v>264</v>
+      <c r="J26" s="27" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="72"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="51">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="19">
         <v>70130</v>
       </c>
-      <c r="H27" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="60">
+      <c r="H27" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="25">
         <v>7003</v>
       </c>
-      <c r="J27" s="74" t="s">
-        <v>265</v>
+      <c r="J27" s="27" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="72"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50">
+      <c r="B28" s="68"/>
+      <c r="C28" s="63">
         <v>42</v>
       </c>
-      <c r="D28" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="50">
+      <c r="D28" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="63">
         <v>420</v>
       </c>
-      <c r="F28" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="51">
+      <c r="F28" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="19">
         <v>72921</v>
       </c>
-      <c r="H28" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="53">
+      <c r="H28" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="61">
         <v>7210</v>
       </c>
-      <c r="J28" s="71" t="s">
-        <v>269</v>
+      <c r="J28" s="62" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="72"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="51">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="19">
         <v>72923</v>
       </c>
-      <c r="H29" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="71"/>
+      <c r="H29" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="61"/>
+      <c r="J29" s="62"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="72"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50">
+      <c r="B30" s="68"/>
+      <c r="C30" s="63">
         <v>43</v>
       </c>
-      <c r="D30" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="E30" s="50">
+      <c r="D30" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="63">
         <v>430</v>
       </c>
-      <c r="F30" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="51">
+      <c r="F30" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="19">
         <v>72922</v>
       </c>
-      <c r="H30" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" s="53">
+      <c r="H30" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="61">
         <v>7292</v>
       </c>
-      <c r="J30" s="71" t="s">
-        <v>266</v>
+      <c r="J30" s="62" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="72"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="51">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="19">
         <v>72924</v>
       </c>
-      <c r="H31" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="53"/>
-      <c r="J31" s="71"/>
+      <c r="H31" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" s="61"/>
+      <c r="J31" s="62"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="72"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50">
+      <c r="B32" s="68"/>
+      <c r="C32" s="63">
         <v>44</v>
       </c>
-      <c r="D32" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="50">
+      <c r="D32" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="63">
         <v>440</v>
       </c>
-      <c r="F32" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="51">
+      <c r="F32" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="19">
         <v>72121</v>
       </c>
-      <c r="H32" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="I32" s="57">
+      <c r="H32" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="22">
         <v>7210</v>
       </c>
-      <c r="J32" s="70" t="s">
-        <v>269</v>
+      <c r="J32" s="26" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="72"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="51">
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="19">
         <v>72122</v>
       </c>
-      <c r="H33" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" s="53">
+      <c r="H33" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="61">
         <v>7291</v>
       </c>
-      <c r="J33" s="71" t="s">
-        <v>267</v>
+      <c r="J33" s="62" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="72"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="51">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="19">
         <v>72129</v>
       </c>
-      <c r="H34" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" s="53"/>
-      <c r="J34" s="71"/>
-    </row>
-    <row r="35" spans="1:10" ht="18" thickBot="1">
-      <c r="A35" s="75">
+      <c r="H34" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="61"/>
+      <c r="J34" s="62"/>
+    </row>
+    <row r="35" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A35" s="28">
         <v>6</v>
       </c>
-      <c r="B35" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="76">
+      <c r="B35" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="29">
         <v>60</v>
       </c>
-      <c r="D35" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="76">
+      <c r="D35" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="29">
         <v>600</v>
       </c>
-      <c r="F35" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" s="76">
+      <c r="F35" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="29">
         <v>94120</v>
       </c>
-      <c r="H35" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" s="78">
+      <c r="H35" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35" s="31">
         <v>8101</v>
       </c>
-      <c r="J35" s="79" t="s">
-        <v>268</v>
+      <c r="J35" s="32" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5527,6 +5550,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="I33:I34"/>
@@ -5543,63 +5623,6 @@
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="I6:I10"/>
     <mergeCell ref="J6:J10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B10"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5607,121 +5630,121 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D83ED3-3841-8540-A1F3-FE4FD08BBB6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
+      <c r="A2" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="16">
         <v>201408</v>
       </c>
@@ -5780,13 +5803,13 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="19"/>
+      <c r="A5" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="34"/>
       <c r="D5" s="16">
         <v>13333</v>
       </c>
@@ -5845,10 +5868,10 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="21"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D6" s="16">
         <v>12417</v>
@@ -5908,10 +5931,10 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="21"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D7" s="16">
         <v>916</v>
@@ -5963,11 +5986,11 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="21"/>
-      <c r="B8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="19"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="34"/>
       <c r="D8" s="16">
         <v>25059</v>
       </c>
@@ -6026,10 +6049,10 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="21"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D9" s="16">
         <v>307</v>
@@ -6089,10 +6112,10 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="21"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D10" s="16">
         <v>16133</v>
@@ -6152,10 +6175,10 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="21"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D11" s="16">
         <v>8619</v>
@@ -6215,11 +6238,11 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="21"/>
-      <c r="B12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="19"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="34"/>
       <c r="D12" s="16">
         <v>57939</v>
       </c>
@@ -6278,10 +6301,10 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="21"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D13" s="16">
         <v>777</v>
@@ -6341,10 +6364,10 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="21"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D14" s="16">
         <v>32746</v>
@@ -6404,10 +6427,10 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="21"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D15" s="16">
         <v>20162</v>
@@ -6467,10 +6490,10 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="21"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D16" s="16">
         <v>775</v>
@@ -6530,10 +6553,10 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="21"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D17" s="16">
         <v>3479</v>
@@ -6593,11 +6616,11 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="21"/>
-      <c r="B18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="19"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="34"/>
       <c r="D18" s="16">
         <v>105001</v>
       </c>
@@ -6656,10 +6679,10 @@
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="21"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D19" s="16">
         <v>37417</v>
@@ -6719,10 +6742,10 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="21"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D20" s="16">
         <v>10408</v>
@@ -6782,10 +6805,10 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="21"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D21" s="16">
         <v>2360</v>
@@ -6845,10 +6868,10 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="21"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D22" s="16">
         <v>54816</v>
@@ -6907,12 +6930,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="14" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23" s="19"/>
+    <row r="23" spans="1:21" ht="14.1" customHeight="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="34"/>
       <c r="D23" s="16">
         <v>77</v>
       </c>
@@ -6971,10 +6994,10 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="21"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D24" s="16">
         <v>77</v>
@@ -7035,7 +7058,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="C26" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -7043,17 +7066,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산업분류 최종/최종 분류.xlsx
+++ b/산업분류 최종/최종 분류.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\김동요\jupyter\프로젝트\산업분류 최종\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/산업분류 최종/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E1C536-39F8-714D-8F0E-175262A57BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48075" yWindow="-3600" windowWidth="19125" windowHeight="21600" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="4860" yWindow="540" windowWidth="19560" windowHeight="17500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="최종 분류표(21)" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="공간정보산업 특수분류 체계 통계청 및 산업연관표 연결" sheetId="7" r:id="rId4"/>
     <sheet name="소분류별 연도별 전체 매출액 및 공간정보 관련 매출액" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,16 +39,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="273">
   <si>
     <t>농림어업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>광업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>제조업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>전기, 가스, 증기 및 수도사업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>건설업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -56,6 +65,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>운수업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>숙박 및 음식점업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -64,6 +77,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>금융 및 보험업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>부동산 및 임대업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -76,6 +93,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>교육서비스업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>보건업 및 사회복지서비스업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>문화 및 기타서비스업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -351,16 +376,28 @@
     <t>269-281</t>
   </si>
   <si>
+    <t>282-296</t>
+  </si>
+  <si>
     <t>298-311</t>
   </si>
   <si>
+    <t>312-316</t>
+  </si>
+  <si>
     <t>330-336</t>
   </si>
   <si>
+    <t>337-340</t>
+  </si>
+  <si>
     <t>356-358</t>
   </si>
   <si>
     <t>359-361</t>
+  </si>
+  <si>
+    <t>362-366</t>
   </si>
   <si>
     <t>기본분류 구분</t>
@@ -1043,71 +1080,11 @@
     <t>341-343, 348-350</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
-  <si>
-    <t>광업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육서비스업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간정보 관련 도매업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기, 가스, 증기 및 수도사업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간정보 관련 기술서비스업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>362-366</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>312-316</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>금융 및 보험업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>운수업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>282-296</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>337-340</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간정보 관련 출판 및 정보서비스업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간정보 관련 협회 및 단체</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>보건업 및 사회복지서비스업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ &quot;%&quot;"/>
   </numFmts>
@@ -2152,10 +2129,115 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2173,9 +2255,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2193,147 +2311,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2655,163 +2632,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="33"/>
+      <c r="A1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="21"/>
       <c r="E1" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>275</v>
+        <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="35"/>
+        <v>29</v>
+      </c>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>272</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E9" s="14">
         <v>297</v>
@@ -2819,215 +2796,215 @@
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>271</v>
+        <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>269</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>270</v>
+        <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>273</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>7</v>
+      <c r="A15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>89</v>
+        <v>46</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="35"/>
+        <v>47</v>
+      </c>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>264</v>
+        <v>13</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>268</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>9</v>
+      <c r="A20" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>90</v>
+        <v>55</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="35"/>
+        <v>57</v>
+      </c>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -3037,36 +3014,36 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>276</v>
+        <v>20</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -3077,17 +3054,17 @@
     <row r="27" spans="1:5" ht="33" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3095,647 +3072,647 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AE89C8-ECBA-4E4F-B8BB-93FD7C793116}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8" ht="27">
-      <c r="A3" s="36">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="48">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="36">
+      <c r="B3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="24">
         <v>11</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="36">
+      <c r="D3" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="24">
         <v>110</v>
       </c>
-      <c r="F3" s="36" t="s">
-        <v>222</v>
+      <c r="F3" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="G3" s="10">
         <v>27211</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="10">
         <v>27302</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="36">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="24">
         <v>12</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="36">
+      <c r="D5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="24">
         <v>120</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>95</v>
+      <c r="F5" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="G5" s="10">
         <v>18111</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="10">
         <v>18112</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="10">
         <v>18113</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="10">
         <v>18119</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="10">
         <v>18200</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="36">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="48">
+      <c r="A10" s="24">
         <v>2</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>101</v>
+      <c r="B10" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="C10" s="10">
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E10" s="10">
         <v>210</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G10" s="10">
         <v>46453</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="36">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="48">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24">
         <v>22</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="D11" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="24">
         <v>220</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>104</v>
+      <c r="F11" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="G11" s="10">
         <v>46493</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="10">
         <v>46593</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="10">
         <v>23</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E13" s="10">
         <v>230</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G13" s="10">
         <v>46510</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="36">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32">
+      <c r="A14" s="24">
         <v>3</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="36">
+      <c r="B14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="24">
         <v>31</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="36">
+      <c r="D14" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="24">
         <v>310</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>109</v>
+      <c r="F14" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="G14" s="10">
         <v>58113</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="10">
         <v>58190</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="36">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="48">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="24">
         <v>32</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="36">
+      <c r="D16" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="24">
         <v>321</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>113</v>
+      <c r="F16" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="G16" s="10">
         <v>58221</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="48">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="10">
         <v>58222</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="36">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="32">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="24">
         <v>322</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>116</v>
+      <c r="F18" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="G18" s="10">
         <v>62010</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="27">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="48">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="10">
         <v>62021</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="27">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="48">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="10">
         <v>62090</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="27">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="36">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="48">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="24">
         <v>33</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>120</v>
+      <c r="D21" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="E21" s="10">
         <v>331</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G21" s="10">
         <v>63120</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="36">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="24">
         <v>332</v>
       </c>
-      <c r="F22" s="36" t="s">
-        <v>123</v>
+      <c r="F22" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="G22" s="10">
         <v>63111</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="48">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="10">
         <v>63991</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="36">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="32">
+      <c r="A24" s="24">
         <v>4</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="36">
+      <c r="B24" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="24">
         <v>41</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="36">
+      <c r="D24" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="24">
         <v>410</v>
       </c>
-      <c r="F24" s="36" t="s">
-        <v>127</v>
+      <c r="F24" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="G24" s="10">
         <v>70119</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="32">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="10">
         <v>70129</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="48">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="10">
         <v>70130</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="36">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="24">
         <v>42</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="36">
+      <c r="D27" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="24">
         <v>420</v>
       </c>
-      <c r="F27" s="36" t="s">
-        <v>131</v>
+      <c r="F27" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="G27" s="10">
         <v>72921</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="32">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="10">
         <v>72923</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="36">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="24">
         <v>43</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="E29" s="36">
+      <c r="D29" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="24">
         <v>430</v>
       </c>
-      <c r="F29" s="36" t="s">
-        <v>134</v>
+      <c r="F29" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="G29" s="10">
         <v>72922</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="10">
         <v>72924</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="36">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="48">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="24">
         <v>44</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="36">
+      <c r="D31" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="24">
         <v>440</v>
       </c>
-      <c r="F31" s="36" t="s">
-        <v>137</v>
+      <c r="F31" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="G31" s="10">
         <v>72121</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="48">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="10">
         <v>72122</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="32">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
       <c r="G33" s="10">
         <v>72129</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="36">
+      <c r="A34" s="24">
         <v>6</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="36">
+      <c r="B34" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="24">
         <v>60</v>
       </c>
-      <c r="D34" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="36">
+      <c r="D34" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="24">
         <v>600</v>
       </c>
-      <c r="F34" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="36">
+      <c r="F34" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="24">
         <v>94120</v>
       </c>
-      <c r="H34" s="39" t="s">
-        <v>142</v>
+      <c r="H34" s="28" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2"/>
@@ -3749,41 +3726,17 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="F31:F33"/>
@@ -3800,17 +3753,41 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3818,927 +3795,878 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABA8F6A-62C6-4246-A783-DCC256FD3A01}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="H4:I10"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G23" sqref="F23:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="56.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" s="44"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="33">
+      <c r="A4" s="21">
         <v>1</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="33">
+      <c r="B4" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="21">
         <v>11</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="59">
+      <c r="D4" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="33">
         <v>110</v>
       </c>
-      <c r="F4" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="54">
+      <c r="F4" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="35">
         <v>351</v>
       </c>
-      <c r="H4" s="59" t="s">
-        <v>145</v>
+      <c r="H4" s="33" t="s">
+        <v>155</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>153</v>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>163</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="54">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="64">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E10" s="6">
         <v>120</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="33">
+      <c r="A11" s="21">
         <v>2</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>209</v>
+      <c r="B11" s="38" t="s">
+        <v>219</v>
       </c>
       <c r="C11" s="9">
         <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E11" s="8">
         <v>210</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" s="4">
         <v>520</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="I11" s="4">
         <v>5200</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="9">
         <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E12" s="8">
         <v>220</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G12" s="4">
         <v>520</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="I12" s="4">
         <v>5200</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="9">
         <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E13" s="8">
         <v>230</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G13" s="4">
         <v>520</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="I13" s="4">
         <v>5200</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="33">
+      <c r="A14" s="21">
         <v>3</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>210</v>
+      <c r="B14" s="38" t="s">
+        <v>220</v>
       </c>
       <c r="C14" s="9">
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E14" s="8">
         <v>310</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G14" s="4">
         <v>630</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I14" s="4">
         <v>6300</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="52">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="37">
         <v>321</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="G15" s="54">
+      <c r="F15" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="35">
         <v>621</v>
       </c>
-      <c r="H15" s="54" t="s">
-        <v>166</v>
+      <c r="H15" s="35" t="s">
+        <v>176</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="52">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="37">
         <v>322</v>
       </c>
-      <c r="F18" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="G18" s="54">
+      <c r="F18" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="35">
         <v>621</v>
       </c>
-      <c r="H18" s="54" t="s">
-        <v>166</v>
+      <c r="H18" s="35" t="s">
+        <v>176</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>201</v>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>211</v>
       </c>
       <c r="E21" s="8">
         <v>331</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G21" s="4">
         <v>610</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="8">
         <v>332</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G22" s="4">
         <v>610</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="33">
+      <c r="A23" s="21">
         <v>4</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="E23" s="52">
+      <c r="B23" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="37">
         <v>410</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>127</v>
+      <c r="F23" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="G23" s="4">
         <v>721</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35">
         <v>729</v>
       </c>
-      <c r="H24" s="54" t="s">
-        <v>178</v>
+      <c r="H24" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
       <c r="I26" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21">
         <v>42</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="E27" s="52">
+      <c r="D27" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="37">
         <v>420</v>
       </c>
-      <c r="F27" s="52" t="s">
-        <v>131</v>
+      <c r="F27" s="37" t="s">
+        <v>141</v>
       </c>
       <c r="G27" s="4">
         <v>721</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35">
         <v>729</v>
       </c>
-      <c r="H28" s="54" t="s">
-        <v>178</v>
+      <c r="H28" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
       <c r="I29" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
       <c r="I30" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21">
         <v>43</v>
       </c>
-      <c r="D31" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="E31" s="52">
+      <c r="D31" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="37">
         <v>430</v>
       </c>
-      <c r="F31" s="52" t="s">
-        <v>134</v>
+      <c r="F31" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="G31" s="4">
         <v>721</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35">
         <v>729</v>
       </c>
-      <c r="H32" s="54" t="s">
-        <v>178</v>
+      <c r="H32" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
       <c r="I33" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
       <c r="I34" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21">
         <v>44</v>
       </c>
-      <c r="D35" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="E35" s="52">
+      <c r="D35" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" s="37">
         <v>440</v>
       </c>
-      <c r="F35" s="52" t="s">
-        <v>137</v>
+      <c r="F35" s="37" t="s">
+        <v>147</v>
       </c>
       <c r="G35" s="4">
         <v>721</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35">
         <v>729</v>
       </c>
-      <c r="H36" s="54" t="s">
-        <v>178</v>
+      <c r="H36" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
       <c r="I37" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
       <c r="I38" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="33">
+      <c r="A39" s="21">
         <v>6</v>
       </c>
-      <c r="B39" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="33">
+      <c r="B39" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="21">
         <v>60</v>
       </c>
-      <c r="D39" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="E39" s="52">
+      <c r="D39" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" s="37">
         <v>600</v>
       </c>
-      <c r="F39" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" s="54">
+      <c r="F39" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="35">
         <v>810</v>
       </c>
-      <c r="H39" s="54" t="s">
-        <v>185</v>
+      <c r="H39" s="35" t="s">
+        <v>195</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="42" customHeight="1">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
       <c r="I40" s="3" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C27:C30"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="B23:B38"/>
     <mergeCell ref="A23:A38"/>
@@ -4755,6 +4683,55 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B14:B22"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G2:H3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4762,780 +4739,780 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3553689-B5DE-154F-BAF5-FB3EEFBBFC6E}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J10"/>
+    <sheetView topLeftCell="D1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.875" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="25.875" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1">
+    <row r="1" spans="1:10" ht="18" thickBot="1">
       <c r="A1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="68.099999999999994" customHeight="1">
-      <c r="A2" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" s="67"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="68" customHeight="1">
+      <c r="A2" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="71">
+      <c r="A3" s="69">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="63">
+      <c r="B3" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="50">
         <v>11</v>
       </c>
-      <c r="D3" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="63">
+      <c r="D3" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="50">
         <v>110</v>
       </c>
-      <c r="F3" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="19">
+      <c r="F3" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="51">
         <v>27211</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="22">
+      <c r="H3" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="57">
         <v>3612</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>244</v>
+      <c r="J3" s="70" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="71"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="63">
+      <c r="A4" s="69"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="50">
         <v>27302</v>
       </c>
-      <c r="H4" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="22">
+      <c r="H4" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="57">
         <v>3691</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>245</v>
+      <c r="J4" s="70" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="71"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="22">
+      <c r="A5" s="69"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="57">
         <v>3692</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>246</v>
+      <c r="J5" s="70" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="71"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63">
+      <c r="A6" s="69"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50">
         <v>12</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="63">
+      <c r="D6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="50">
         <v>120</v>
       </c>
-      <c r="F6" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="F6" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="51">
         <v>18111</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="61">
+      <c r="H6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="53">
         <v>1500</v>
       </c>
-      <c r="J6" s="62" t="s">
-        <v>247</v>
+      <c r="J6" s="71" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="71"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="19">
+      <c r="A7" s="69"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="51">
         <v>18112</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="H7" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="71"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="19">
+      <c r="A8" s="69"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="51">
         <v>18113</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
+      <c r="H8" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="71"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="19">
+      <c r="A9" s="69"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="51">
         <v>18119</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
+      <c r="H9" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="71"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="19">
+      <c r="A10" s="69"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="51">
         <v>18200</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-    </row>
-    <row r="11" spans="1:10" ht="27">
-      <c r="A11" s="71">
+      <c r="H10" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="71"/>
+    </row>
+    <row r="11" spans="1:10" ht="32">
+      <c r="A11" s="69">
         <v>2</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="B11" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="51">
         <v>21</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="D11" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="51">
         <v>210</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="F11" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="51">
         <v>46453</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="61">
+      <c r="H11" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="53">
         <v>5200</v>
       </c>
-      <c r="J11" s="62" t="s">
-        <v>248</v>
+      <c r="J11" s="71" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="72"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="63">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50">
         <v>22</v>
       </c>
-      <c r="D12" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="63">
+      <c r="D12" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="50">
         <v>220</v>
       </c>
-      <c r="F12" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="F12" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="51">
         <v>46493</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
+      <c r="H12" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="71"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="72"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="19">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="51">
         <v>46593</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
-    </row>
-    <row r="14" spans="1:10" ht="27">
+      <c r="H13" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="71"/>
+    </row>
+    <row r="14" spans="1:10" ht="32">
       <c r="A14" s="72"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="19">
+      <c r="B14" s="49"/>
+      <c r="C14" s="51">
         <v>23</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="D14" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="51">
         <v>230</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="19">
+      <c r="F14" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="51">
         <v>46510</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
+      <c r="H14" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="71"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="71">
+      <c r="A15" s="69">
         <v>3</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="63">
+      <c r="B15" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="50">
         <v>31</v>
       </c>
-      <c r="D15" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="63">
+      <c r="D15" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="50">
         <v>310</v>
       </c>
-      <c r="F15" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="F15" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="51">
         <v>58113</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="61">
+      <c r="H15" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="53">
         <v>6300</v>
       </c>
-      <c r="J15" s="62" t="s">
-        <v>249</v>
+      <c r="J15" s="71" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="72"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="19">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="51">
         <v>58190</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
+      <c r="H16" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="53"/>
+      <c r="J16" s="71"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="72"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="63">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50">
         <v>32</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="63">
+      <c r="D17" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="50">
         <v>321</v>
       </c>
-      <c r="F17" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="F17" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="51">
         <v>58221</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="61">
+      <c r="H17" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="53">
         <v>6212</v>
       </c>
-      <c r="J17" s="62" t="s">
-        <v>250</v>
+      <c r="J17" s="71" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="72"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="19">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="51">
         <v>58222</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
+      <c r="H18" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="72"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="63">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50">
         <v>322</v>
       </c>
-      <c r="F19" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="19">
+      <c r="F19" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="51">
         <v>62010</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="62"/>
+      <c r="H19" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="71"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1">
       <c r="A20" s="72"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="19">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="51">
         <v>62021</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="62"/>
+      <c r="H20" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20" s="71"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="72"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="19">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="51">
         <v>62090</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" s="22">
+      <c r="H21" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="57">
         <v>6290</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>251</v>
+      <c r="J21" s="70" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="72"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="63">
+      <c r="B22" s="49"/>
+      <c r="C22" s="50">
         <v>33</v>
       </c>
-      <c r="D22" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="19">
+      <c r="D22" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="51">
         <v>331</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="19">
+      <c r="F22" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="51">
         <v>63120</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" s="22">
+      <c r="H22" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="57">
         <v>6100</v>
       </c>
-      <c r="J22" s="26" t="s">
-        <v>252</v>
+      <c r="J22" s="70" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="72"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="63">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50">
         <v>332</v>
       </c>
-      <c r="F23" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="19">
+      <c r="F23" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="51">
         <v>63111</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="61">
+      <c r="H23" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="53">
         <v>6212</v>
       </c>
-      <c r="J23" s="64" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="57.95" customHeight="1">
+      <c r="J23" s="73" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="58" customHeight="1">
       <c r="A24" s="72"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="19">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="51">
         <v>63991</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I24" s="61"/>
-      <c r="J24" s="62"/>
-    </row>
-    <row r="25" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A25" s="71">
+      <c r="H24" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="71"/>
+    </row>
+    <row r="25" spans="1:10" ht="23" customHeight="1">
+      <c r="A25" s="69">
         <v>4</v>
       </c>
-      <c r="B25" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="63">
+      <c r="B25" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="50">
         <v>41</v>
       </c>
-      <c r="D25" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="63">
+      <c r="D25" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="50">
         <v>410</v>
       </c>
-      <c r="F25" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="19">
+      <c r="F25" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="51">
         <v>70119</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" s="23">
+      <c r="H25" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="58">
         <v>7001</v>
       </c>
-      <c r="J25" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="32.1" customHeight="1">
+      <c r="J25" s="74" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="32" customHeight="1">
       <c r="A26" s="72"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="19">
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="51">
         <v>70129</v>
       </c>
-      <c r="H26" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I26" s="24">
+      <c r="H26" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" s="59">
         <v>7002</v>
       </c>
-      <c r="J26" s="27" t="s">
-        <v>254</v>
+      <c r="J26" s="74" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="72"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="19">
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="51">
         <v>70130</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" s="25">
+      <c r="H27" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="60">
         <v>7003</v>
       </c>
-      <c r="J27" s="27" t="s">
-        <v>255</v>
+      <c r="J27" s="74" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="72"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="63">
+      <c r="B28" s="49"/>
+      <c r="C28" s="50">
         <v>42</v>
       </c>
-      <c r="D28" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="63">
+      <c r="D28" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="50">
         <v>420</v>
       </c>
-      <c r="F28" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="19">
+      <c r="F28" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="51">
         <v>72921</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="61">
+      <c r="H28" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="53">
         <v>7210</v>
       </c>
-      <c r="J28" s="62" t="s">
-        <v>259</v>
+      <c r="J28" s="71" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="72"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="19">
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="51">
         <v>72923</v>
       </c>
-      <c r="H29" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29" s="61"/>
-      <c r="J29" s="62"/>
+      <c r="H29" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" s="53"/>
+      <c r="J29" s="71"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="72"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="63">
+      <c r="B30" s="49"/>
+      <c r="C30" s="50">
         <v>43</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="E30" s="63">
+      <c r="D30" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="50">
         <v>430</v>
       </c>
-      <c r="F30" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="19">
+      <c r="F30" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="51">
         <v>72922</v>
       </c>
-      <c r="H30" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="61">
+      <c r="H30" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="53">
         <v>7292</v>
       </c>
-      <c r="J30" s="62" t="s">
-        <v>256</v>
+      <c r="J30" s="71" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="72"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="19">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="51">
         <v>72924</v>
       </c>
-      <c r="H31" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="I31" s="61"/>
-      <c r="J31" s="62"/>
+      <c r="H31" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="53"/>
+      <c r="J31" s="71"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="72"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="63">
+      <c r="B32" s="49"/>
+      <c r="C32" s="50">
         <v>44</v>
       </c>
-      <c r="D32" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="63">
+      <c r="D32" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="50">
         <v>440</v>
       </c>
-      <c r="F32" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="19">
+      <c r="F32" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="51">
         <v>72121</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="I32" s="22">
+      <c r="H32" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="I32" s="57">
         <v>7210</v>
       </c>
-      <c r="J32" s="26" t="s">
-        <v>259</v>
+      <c r="J32" s="70" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="72"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="19">
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="51">
         <v>72122</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="I33" s="61">
+      <c r="H33" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" s="53">
         <v>7291</v>
       </c>
-      <c r="J33" s="62" t="s">
-        <v>257</v>
+      <c r="J33" s="71" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="72"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="19">
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="51">
         <v>72129</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" s="61"/>
-      <c r="J34" s="62"/>
-    </row>
-    <row r="35" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A35" s="28">
+      <c r="H34" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="53"/>
+      <c r="J34" s="71"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" thickBot="1">
+      <c r="A35" s="75">
         <v>6</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="29">
+      <c r="B35" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="76">
         <v>60</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="29">
+      <c r="D35" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="76">
         <v>600</v>
       </c>
-      <c r="F35" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="29">
+      <c r="F35" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="76">
         <v>94120</v>
       </c>
-      <c r="H35" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="I35" s="31">
+      <c r="H35" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="78">
         <v>8101</v>
       </c>
-      <c r="J35" s="32" t="s">
-        <v>258</v>
+      <c r="J35" s="79" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5550,63 +5527,6 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="I33:I34"/>
@@ -5623,6 +5543,63 @@
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="I6:I10"/>
     <mergeCell ref="J6:J10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5630,121 +5607,122 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D83ED3-3841-8540-A1F3-FE4FD08BBB6E}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="62.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="A4" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="16">
         <v>201408</v>
       </c>
@@ -5803,13 +5781,13 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="34"/>
+      <c r="A5" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="19"/>
       <c r="D5" s="16">
         <v>13333</v>
       </c>
@@ -5868,10 +5846,10 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="33"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D6" s="16">
         <v>12417</v>
@@ -5931,10 +5909,10 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="33"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D7" s="16">
         <v>916</v>
@@ -5986,11 +5964,11 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="34"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="16">
         <v>25059</v>
       </c>
@@ -6049,10 +6027,10 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="33"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D9" s="16">
         <v>307</v>
@@ -6112,10 +6090,10 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="33"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D10" s="16">
         <v>16133</v>
@@ -6175,10 +6153,10 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="33"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D11" s="16">
         <v>8619</v>
@@ -6238,11 +6216,11 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="34"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="16">
         <v>57939</v>
       </c>
@@ -6301,10 +6279,10 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="33"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D13" s="16">
         <v>777</v>
@@ -6364,10 +6342,10 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="33"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D14" s="16">
         <v>32746</v>
@@ -6427,10 +6405,10 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="33"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D15" s="16">
         <v>20162</v>
@@ -6490,10 +6468,10 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="33"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D16" s="16">
         <v>775</v>
@@ -6553,10 +6531,10 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="33"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D17" s="16">
         <v>3479</v>
@@ -6616,11 +6594,11 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="34"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="19"/>
       <c r="D18" s="16">
         <v>105001</v>
       </c>
@@ -6679,10 +6657,10 @@
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="33"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D19" s="16">
         <v>37417</v>
@@ -6742,10 +6720,10 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="33"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D20" s="16">
         <v>10408</v>
@@ -6805,10 +6783,10 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="33"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D21" s="16">
         <v>2360</v>
@@ -6868,10 +6846,10 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="33"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D22" s="16">
         <v>54816</v>
@@ -6930,12 +6908,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="14.1" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="34"/>
+    <row r="23" spans="1:21" ht="14" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="19"/>
       <c r="D23" s="16">
         <v>77</v>
       </c>
@@ -6994,10 +6972,10 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="33"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D24" s="16">
         <v>77</v>
@@ -7058,7 +7036,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="C26" s="15" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -7066,17 +7044,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산업분류 최종/최종 분류.xlsx
+++ b/산업분류 최종/최종 분류.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/산업분류 최종/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E1C536-39F8-714D-8F0E-175262A57BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301CC333-E297-5B4D-A605-1F67498CCB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="540" windowWidth="19560" windowHeight="17500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="최종 분류표(21)" sheetId="1" r:id="rId1"/>
@@ -2129,14 +2129,71 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2144,20 +2201,41 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2174,143 +2252,65 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2635,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A12" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2649,14 +2649,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="9" t="s">
         <v>84</v>
       </c>
@@ -2733,10 +2733,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -2745,20 +2745,20 @@
       <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12" t="s">
@@ -2880,10 +2880,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -2892,20 +2892,20 @@
       <c r="D15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="35" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="12" t="s">
@@ -2959,10 +2959,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -2971,20 +2971,20 @@
       <c r="D20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="12" t="s">
@@ -3054,17 +3054,17 @@
     <row r="27" spans="1:5" ht="33" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3075,7 +3075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AE89C8-ECBA-4E4F-B8BB-93FD7C793116}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
@@ -3097,40 +3097,40 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="40" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" ht="48">
-      <c r="A3" s="24">
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" ht="32">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="36">
         <v>11</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="36">
         <v>110</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="36" t="s">
         <v>232</v>
       </c>
       <c r="G3" s="10">
@@ -3140,13 +3140,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="48">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="10">
         <v>27302</v>
       </c>
@@ -3155,18 +3155,18 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="24">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="36">
         <v>12</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="36">
         <v>120</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="36" t="s">
         <v>105</v>
       </c>
       <c r="G5" s="10">
@@ -3177,12 +3177,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="10">
         <v>18112</v>
       </c>
@@ -3191,12 +3191,12 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="10">
         <v>18113</v>
       </c>
@@ -3205,12 +3205,12 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="10">
         <v>18119</v>
       </c>
@@ -3218,13 +3218,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="10">
         <v>18200</v>
       </c>
@@ -3232,11 +3232,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="48">
-      <c r="A10" s="24">
+    <row r="10" spans="1:8" ht="32">
+      <c r="A10" s="36">
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="36" t="s">
         <v>111</v>
       </c>
       <c r="C10" s="10">
@@ -3258,19 +3258,19 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="48">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="24">
+    <row r="11" spans="1:8">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="36">
         <v>22</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="36">
         <v>220</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="36" t="s">
         <v>114</v>
       </c>
       <c r="G11" s="10">
@@ -3280,13 +3280,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="32">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="10">
         <v>46593</v>
       </c>
@@ -3294,9 +3294,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="48">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+    <row r="13" spans="1:8" ht="32">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="10">
         <v>23</v>
       </c>
@@ -3316,23 +3316,23 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32">
-      <c r="A14" s="24">
+    <row r="14" spans="1:8">
+      <c r="A14" s="36">
         <v>3</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="36">
         <v>31</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="36">
         <v>310</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="36" t="s">
         <v>119</v>
       </c>
       <c r="G14" s="10">
@@ -3342,13 +3342,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="32">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="10">
         <v>58190</v>
       </c>
@@ -3356,19 +3356,19 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="48">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="24">
+    <row r="16" spans="1:8">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="36">
         <v>32</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="36">
         <v>321</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="36" t="s">
         <v>123</v>
       </c>
       <c r="G16" s="10">
@@ -3378,13 +3378,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="48">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="10">
         <v>58222</v>
       </c>
@@ -3392,15 +3392,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="32">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="24">
+    <row r="18" spans="1:8">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="36">
         <v>322</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="36" t="s">
         <v>126</v>
       </c>
       <c r="G18" s="10">
@@ -3410,13 +3410,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="48">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+    <row r="19" spans="1:8" ht="32">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="10">
         <v>62021</v>
       </c>
@@ -3424,13 +3424,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="48">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+    <row r="20" spans="1:8" ht="32">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="10">
         <v>62090</v>
       </c>
@@ -3438,13 +3438,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="48">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="24">
+    <row r="21" spans="1:8" ht="32">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="36">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="36" t="s">
         <v>130</v>
       </c>
       <c r="E21" s="10">
@@ -3461,14 +3461,14 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="24">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="36">
         <v>332</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="36" t="s">
         <v>133</v>
       </c>
       <c r="G22" s="10">
@@ -3478,13 +3478,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="48">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="10">
         <v>63991</v>
       </c>
@@ -3492,23 +3492,23 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="32">
-      <c r="A24" s="24">
+    <row r="24" spans="1:8">
+      <c r="A24" s="36">
         <v>4</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="36">
         <v>41</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="36">
         <v>410</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="36" t="s">
         <v>137</v>
       </c>
       <c r="G24" s="10">
@@ -3518,13 +3518,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="32">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+    <row r="25" spans="1:8">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="10">
         <v>70129</v>
       </c>
@@ -3532,13 +3532,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="48">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="10">
         <v>70130</v>
       </c>
@@ -3547,18 +3547,18 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="24">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="36">
         <v>42</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="36">
         <v>420</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="36" t="s">
         <v>141</v>
       </c>
       <c r="G27" s="10">
@@ -3568,13 +3568,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="32">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="10">
         <v>72923</v>
       </c>
@@ -3583,18 +3583,18 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="24">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="36">
         <v>43</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="36">
         <v>430</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="36" t="s">
         <v>144</v>
       </c>
       <c r="G29" s="10">
@@ -3605,12 +3605,12 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="10">
         <v>72924</v>
       </c>
@@ -3618,19 +3618,19 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="48">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="24">
+    <row r="31" spans="1:8">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="36">
         <v>44</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="36">
         <v>440</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="36" t="s">
         <v>147</v>
       </c>
       <c r="G31" s="10">
@@ -3640,13 +3640,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="48">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="10">
         <v>72122</v>
       </c>
@@ -3654,13 +3654,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="32">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="10">
         <v>72129</v>
       </c>
@@ -3669,50 +3669,50 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="24">
+      <c r="A34" s="36">
         <v>6</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="36">
         <v>60</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="36">
         <v>600</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="36">
         <v>94120</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="39" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2"/>
@@ -3726,17 +3726,41 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="F31:F33"/>
@@ -3753,41 +3777,17 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="F34:F36"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3798,8 +3798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABA8F6A-62C6-4246-A783-DCC256FD3A01}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G23" sqref="F23:G30"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3820,62 +3820,62 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="39" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="J2" s="40"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="17" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="21">
+      <c r="A4" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="33">
         <v>11</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="59">
         <v>110</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="54">
         <v>351</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="59" t="s">
         <v>155</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -3886,14 +3886,14 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
       <c r="I5" s="3" t="s">
         <v>158</v>
       </c>
@@ -3902,14 +3902,14 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="3" t="s">
         <v>160</v>
       </c>
@@ -3918,16 +3918,16 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="36" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="54" t="s">
         <v>163</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -3938,14 +3938,14 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="3" t="s">
         <v>166</v>
       </c>
@@ -3954,14 +3954,14 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="3" t="s">
         <v>168</v>
       </c>
@@ -3970,8 +3970,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="64">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="5" t="s">
         <v>203</v>
       </c>
@@ -3998,10 +3998,10 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="21">
+      <c r="A11" s="33">
         <v>2</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="47" t="s">
         <v>219</v>
       </c>
       <c r="C11" s="9">
@@ -4030,8 +4030,8 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="9">
         <v>22</v>
       </c>
@@ -4058,8 +4058,8 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="9">
         <v>23</v>
       </c>
@@ -4086,10 +4086,10 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="21">
+      <c r="A14" s="33">
         <v>3</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="47" t="s">
         <v>220</v>
       </c>
       <c r="C14" s="9">
@@ -4118,24 +4118,24 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="38" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="52">
         <v>321</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="54">
         <v>621</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="54" t="s">
         <v>176</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -4146,14 +4146,14 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="3" t="s">
         <v>179</v>
       </c>
@@ -4162,12 +4162,12 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="3" t="s">
         <v>180</v>
       </c>
@@ -4182,20 +4182,20 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="37">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="52">
         <v>322</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="54">
         <v>621</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="54" t="s">
         <v>176</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -4206,14 +4206,14 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="3" t="s">
         <v>179</v>
       </c>
@@ -4222,12 +4222,12 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="3" t="s">
         <v>180</v>
       </c>
@@ -4242,12 +4242,12 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="38" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="47" t="s">
         <v>211</v>
       </c>
       <c r="E21" s="8">
@@ -4270,10 +4270,10 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="21"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="8">
         <v>332</v>
       </c>
@@ -4294,22 +4294,22 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="21">
+      <c r="A23" s="33">
         <v>4</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="52">
         <v>410</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="52" t="s">
         <v>137</v>
       </c>
       <c r="G23" s="4">
@@ -4326,16 +4326,16 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54">
         <v>729</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="54" t="s">
         <v>188</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -4346,14 +4346,14 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="3" t="s">
         <v>191</v>
       </c>
@@ -4362,14 +4362,14 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="3" t="s">
         <v>193</v>
       </c>
@@ -4378,18 +4378,18 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33">
         <v>42</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="52">
         <v>420</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="52" t="s">
         <v>141</v>
       </c>
       <c r="G27" s="4">
@@ -4406,16 +4406,16 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54">
         <v>729</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="54" t="s">
         <v>188</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -4426,14 +4426,14 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="3" t="s">
         <v>191</v>
       </c>
@@ -4442,14 +4442,14 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="3" t="s">
         <v>193</v>
       </c>
@@ -4458,18 +4458,18 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33">
         <v>43</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="52">
         <v>430</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="52" t="s">
         <v>144</v>
       </c>
       <c r="G31" s="4">
@@ -4486,16 +4486,16 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54">
         <v>729</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="54" t="s">
         <v>188</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -4506,14 +4506,14 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="3" t="s">
         <v>191</v>
       </c>
@@ -4522,14 +4522,14 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
       <c r="I34" s="3" t="s">
         <v>193</v>
       </c>
@@ -4538,18 +4538,18 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33">
         <v>44</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="52">
         <v>440</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="52" t="s">
         <v>147</v>
       </c>
       <c r="G35" s="4">
@@ -4566,16 +4566,16 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54">
         <v>729</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="54" t="s">
         <v>188</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -4586,14 +4586,14 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="3" t="s">
         <v>191</v>
       </c>
@@ -4602,14 +4602,14 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
       <c r="I38" s="3" t="s">
         <v>193</v>
       </c>
@@ -4618,28 +4618,28 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="21">
+      <c r="A39" s="33">
         <v>6</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="33">
         <v>60</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="52">
         <v>600</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="54">
         <v>810</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H39" s="54" t="s">
         <v>195</v>
       </c>
       <c r="I39" s="3" t="s">
@@ -4650,14 +4650,14 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="42" customHeight="1">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
       <c r="I40" s="3" t="s">
         <v>198</v>
       </c>
@@ -4667,6 +4667,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="B23:B38"/>
     <mergeCell ref="A23:A38"/>
@@ -4683,55 +4732,6 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B14:B22"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="G2:H3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4742,8 +4742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3553689-B5DE-154F-BAF5-FB3EEFBBFC6E}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J22"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="91" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -4766,752 +4766,752 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="68" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="65" t="s">
+      <c r="F2" s="77"/>
+      <c r="G2" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67" t="s">
+      <c r="H2" s="77"/>
+      <c r="I2" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="J2" s="68"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="69">
+      <c r="A3" s="71">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="63">
         <v>11</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="63">
         <v>110</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="19">
         <v>27211</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="22">
         <v>3612</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="26" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="69"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="50">
+      <c r="A4" s="71"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="63">
         <v>27302</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="22">
         <v>3691</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="26" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="69"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="57">
+      <c r="A5" s="71"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="22">
         <v>3692</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="26" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="69"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50">
+      <c r="A6" s="71"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63">
         <v>12</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="63">
         <v>120</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="19">
         <v>18111</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="61">
         <v>1500</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="62" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="69"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="51">
+      <c r="A7" s="71"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="19">
         <v>18112</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="71"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="69"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="51">
+      <c r="A8" s="71"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="19">
         <v>18113</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="71"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="69"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="51">
+      <c r="A9" s="71"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="19">
         <v>18119</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="71"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="69"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="51">
+      <c r="A10" s="71"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="19">
         <v>18200</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="71"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
     </row>
     <row r="11" spans="1:10" ht="32">
-      <c r="A11" s="69">
+      <c r="A11" s="71">
         <v>2</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="19">
         <v>21</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="19">
         <v>210</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="19">
         <v>46453</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="61">
         <v>5200</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="62" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="72"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50">
+      <c r="B12" s="68"/>
+      <c r="C12" s="63">
         <v>22</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="63">
         <v>220</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="19">
         <v>46493</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="71"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="72"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="51">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="19">
         <v>46593</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="71"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" spans="1:10" ht="32">
       <c r="A14" s="72"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="51">
+      <c r="B14" s="68"/>
+      <c r="C14" s="19">
         <v>23</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="19">
         <v>230</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="19">
         <v>46510</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="71"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="69">
+      <c r="A15" s="71">
         <v>3</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="63">
         <v>31</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="63">
         <v>310</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="19">
         <v>58113</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="61">
         <v>6300</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="62" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="72"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="51">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="19">
         <v>58190</v>
       </c>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="71"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="72"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50">
+      <c r="B17" s="68"/>
+      <c r="C17" s="63">
         <v>32</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="63">
         <v>321</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="19">
         <v>58221</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="61">
         <v>6212</v>
       </c>
-      <c r="J17" s="71" t="s">
+      <c r="J17" s="62" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="72"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="51">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="19">
         <v>58222</v>
       </c>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="71"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="72"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="63">
         <v>322</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="19">
         <v>62010</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="71"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1">
       <c r="A20" s="72"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="51">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="19">
         <v>62021</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="71"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="72"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="51">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="19">
         <v>62090</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="22">
         <v>6290</v>
       </c>
-      <c r="J21" s="70" t="s">
+      <c r="J21" s="26" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="72"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50">
+      <c r="B22" s="68"/>
+      <c r="C22" s="63">
         <v>33</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="19">
         <v>331</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="19">
         <v>63120</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I22" s="22">
         <v>6100</v>
       </c>
-      <c r="J22" s="70" t="s">
+      <c r="J22" s="26" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="72"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="63">
         <v>332</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="51">
+      <c r="G23" s="19">
         <v>63111</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="61">
         <v>6212</v>
       </c>
-      <c r="J23" s="73" t="s">
+      <c r="J23" s="64" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="58" customHeight="1">
       <c r="A24" s="72"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="51">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="19">
         <v>63991</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="71"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="62"/>
     </row>
     <row r="25" spans="1:10" ht="23" customHeight="1">
-      <c r="A25" s="69">
+      <c r="A25" s="71">
         <v>4</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="63">
         <v>41</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="63">
         <v>410</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="19">
         <v>70119</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="23">
         <v>7001</v>
       </c>
-      <c r="J25" s="74" t="s">
+      <c r="J25" s="27" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="32" customHeight="1">
       <c r="A26" s="72"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="51">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="19">
         <v>70129</v>
       </c>
-      <c r="H26" s="56" t="s">
+      <c r="H26" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="I26" s="59">
+      <c r="I26" s="24">
         <v>7002</v>
       </c>
-      <c r="J26" s="74" t="s">
+      <c r="J26" s="27" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="72"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="51">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="19">
         <v>70130</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="25">
         <v>7003</v>
       </c>
-      <c r="J27" s="74" t="s">
+      <c r="J27" s="27" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="72"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50">
+      <c r="B28" s="68"/>
+      <c r="C28" s="63">
         <v>42</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="63">
         <v>420</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="G28" s="51">
+      <c r="G28" s="19">
         <v>72921</v>
       </c>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="I28" s="53">
+      <c r="I28" s="61">
         <v>7210</v>
       </c>
-      <c r="J28" s="71" t="s">
+      <c r="J28" s="62" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="72"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="51">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="19">
         <v>72923</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="71"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="62"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="72"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50">
+      <c r="B30" s="68"/>
+      <c r="C30" s="63">
         <v>43</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="63">
         <v>430</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="G30" s="51">
+      <c r="G30" s="19">
         <v>72922</v>
       </c>
-      <c r="H30" s="52" t="s">
+      <c r="H30" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="61">
         <v>7292</v>
       </c>
-      <c r="J30" s="71" t="s">
+      <c r="J30" s="62" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="72"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="51">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="19">
         <v>72924</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="H31" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I31" s="53"/>
-      <c r="J31" s="71"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="62"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="72"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50">
+      <c r="B32" s="68"/>
+      <c r="C32" s="63">
         <v>44</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="63">
         <v>440</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="G32" s="51">
+      <c r="G32" s="19">
         <v>72121</v>
       </c>
-      <c r="H32" s="52" t="s">
+      <c r="H32" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="22">
         <v>7210</v>
       </c>
-      <c r="J32" s="70" t="s">
+      <c r="J32" s="26" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="72"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="51">
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="19">
         <v>72122</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="H33" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="I33" s="53">
+      <c r="I33" s="61">
         <v>7291</v>
       </c>
-      <c r="J33" s="71" t="s">
+      <c r="J33" s="62" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="72"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="51">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="19">
         <v>72129</v>
       </c>
-      <c r="H34" s="52" t="s">
+      <c r="H34" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I34" s="53"/>
-      <c r="J34" s="71"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="62"/>
     </row>
     <row r="35" spans="1:10" ht="18" thickBot="1">
-      <c r="A35" s="75">
+      <c r="A35" s="28">
         <v>6</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="76">
+      <c r="C35" s="29">
         <v>60</v>
       </c>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="76">
+      <c r="E35" s="29">
         <v>600</v>
       </c>
-      <c r="F35" s="77" t="s">
+      <c r="F35" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="G35" s="76">
+      <c r="G35" s="29">
         <v>94120</v>
       </c>
-      <c r="H35" s="77" t="s">
+      <c r="H35" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="78">
+      <c r="I35" s="31">
         <v>8101</v>
       </c>
-      <c r="J35" s="79" t="s">
+      <c r="J35" s="32" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5527,6 +5527,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="I33:I34"/>
@@ -5543,63 +5600,6 @@
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="I6:I10"/>
     <mergeCell ref="J6:J10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B10"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5610,9 +5610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D83ED3-3841-8540-A1F3-FE4FD08BBB6E}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -5628,40 +5628,40 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="47" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="7" t="s">
         <v>242</v>
       </c>
@@ -5718,11 +5718,11 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="16">
         <v>201408</v>
       </c>
@@ -5781,13 +5781,13 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="16">
         <v>13333</v>
       </c>
@@ -5846,7 +5846,7 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="21"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
         <v>230</v>
@@ -5909,7 +5909,7 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="21"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
         <v>233</v>
@@ -5964,11 +5964,11 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="21"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="16">
         <v>25059</v>
       </c>
@@ -6027,7 +6027,7 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="21"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
         <v>204</v>
@@ -6090,7 +6090,7 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="21"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
         <v>205</v>
@@ -6153,7 +6153,7 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="21"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
         <v>206</v>
@@ -6216,11 +6216,11 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="21"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="16">
         <v>57939</v>
       </c>
@@ -6279,7 +6279,7 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="21"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
         <v>207</v>
@@ -6342,7 +6342,7 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="21"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
         <v>234</v>
@@ -6405,7 +6405,7 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="21"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
         <v>235</v>
@@ -6468,7 +6468,7 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="21"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
         <v>236</v>
@@ -6531,7 +6531,7 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="21"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
         <v>237</v>
@@ -6594,11 +6594,11 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="21"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="16">
         <v>105001</v>
       </c>
@@ -6657,7 +6657,7 @@
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="21"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>238</v>
@@ -6720,7 +6720,7 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="21"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
         <v>214</v>
@@ -6783,7 +6783,7 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="21"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
         <v>215</v>
@@ -6846,7 +6846,7 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="21"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
         <v>239</v>
@@ -6909,11 +6909,11 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="14" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="16">
         <v>77</v>
       </c>
@@ -6972,7 +6972,7 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="21"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
         <v>240</v>
@@ -7044,17 +7044,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산업분류 최종/최종 분류.xlsx
+++ b/산업분류 최종/최종 분류.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/산업분류 최종/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/공간정보프로젝트/산업분류 최종/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301CC333-E297-5B4D-A605-1F67498CCB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DE0D43-03D8-2742-887D-79D00CFB712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2320" yWindow="660" windowWidth="28800" windowHeight="17500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="최종 분류표(21)" sheetId="1" r:id="rId1"/>
     <sheet name="공간정보산업 특수분류 체계 통계청 연결" sheetId="2" r:id="rId2"/>
     <sheet name="공간정보산업 특수분류 산업연관표 연결(수정 전)" sheetId="3" r:id="rId3"/>
     <sheet name="공간정보산업 특수분류 체계 통계청 및 산업연관표 연결" sheetId="7" r:id="rId4"/>
-    <sheet name="소분류별 연도별 전체 매출액 및 공간정보 관련 매출액" sheetId="5" r:id="rId5"/>
+    <sheet name="공간정보산업 특수분류 체계 통계청 및 산업연관표  (2)" sheetId="8" r:id="rId5"/>
+    <sheet name="소분류별 연도별 전체 매출액 및 공간정보 관련 매출액" sheetId="5" r:id="rId6"/>
+    <sheet name="소분류별 연도별 전체 매출액 및 공간정보 관련 매 (2)" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="273">
   <si>
     <t>농림어업</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -275,98 +277,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SN01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>구분</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SN02</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN03</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN04</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN05</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN06</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN07</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN08</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN09</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN10</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN11</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN12</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN13</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN14</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN15</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN16</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN17</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN18</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN19</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN20</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN21</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015년 기준 산업연관표 내 기본분류 매칭</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>001-025</t>
   </si>
   <si>
@@ -400,10 +314,6 @@
     <t>362-366</t>
   </si>
   <si>
-    <t>기본분류 구분</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>035-268</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -715,10 +625,6 @@
   </si>
   <si>
     <t>기타 사회 단체</t>
-  </si>
-  <si>
-    <t xml:space="preserve">통계청 한국표준산업분류(KSIC, 10차) </t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>통계청 한국표준산업분류(KSIC, 10차)</t>
@@ -1078,6 +984,102 @@
   </si>
   <si>
     <t>341-343, 348-350</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S13</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S19</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본부문 구분</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업연관표 기본부문 연결</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계청 한국표준산업분류(KSIC, 10차) 연결</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2071,7 +2073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2111,10 +2113,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
@@ -2138,22 +2137,22 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2165,20 +2164,23 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2189,17 +2191,35 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2213,6 +2233,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2228,86 +2251,56 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2635,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2654,19 +2647,19 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="D1" s="33"/>
       <c r="E1" s="9" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>60</v>
@@ -2678,12 +2671,12 @@
         <v>59</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>96</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>0</v>
@@ -2694,13 +2687,13 @@
       <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>85</v>
+      <c r="E3" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>64</v>
+        <v>250</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>1</v>
@@ -2711,13 +2704,13 @@
       <c r="D4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>86</v>
+      <c r="E4" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>2</v>
@@ -2728,15 +2721,15 @@
       <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>97</v>
+      <c r="E5" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -2745,24 +2738,24 @@
       <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>87</v>
+      <c r="E6" s="32" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>4</v>
@@ -2773,13 +2766,13 @@
       <c r="D8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>88</v>
+      <c r="E8" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>5</v>
@@ -2790,13 +2783,13 @@
       <c r="D9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>6</v>
@@ -2807,13 +2800,13 @@
       <c r="D10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>89</v>
+      <c r="E10" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>70</v>
+        <v>256</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>7</v>
@@ -2824,13 +2817,13 @@
       <c r="D11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>90</v>
+      <c r="E11" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>71</v>
+        <v>257</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>8</v>
@@ -2841,13 +2834,13 @@
       <c r="D12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>98</v>
+      <c r="E12" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>9</v>
@@ -2858,13 +2851,13 @@
       <c r="D13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>91</v>
+      <c r="E13" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>10</v>
@@ -2875,15 +2868,15 @@
       <c r="D14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>92</v>
+      <c r="E14" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -2892,24 +2885,24 @@
       <c r="D15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>99</v>
+      <c r="E15" s="32" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>12</v>
@@ -2920,13 +2913,13 @@
       <c r="D17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>93</v>
+      <c r="E17" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>13</v>
@@ -2937,13 +2930,13 @@
       <c r="D18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>94</v>
+      <c r="E18" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>14</v>
@@ -2954,15 +2947,15 @@
       <c r="D19" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>95</v>
+      <c r="E19" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -2971,100 +2964,120 @@
       <c r="D20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>100</v>
+      <c r="E20" s="32" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13" t="s">
-        <v>270</v>
+      <c r="C22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="14">
+      <c r="C23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="13">
         <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13" t="s">
-        <v>271</v>
+      <c r="C24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13" t="s">
-        <v>272</v>
+      <c r="C25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13">
+      <c r="C26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="12">
         <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="33" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3093,56 +3106,56 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="42"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="32">
       <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C3" s="36">
         <v>11</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="E3" s="36">
         <v>110</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="G3" s="10">
         <v>27211</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -3151,34 +3164,34 @@
         <v>27302</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="36">
         <v>12</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E5" s="36">
         <v>120</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="G5" s="10">
         <v>18111</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -3187,12 +3200,12 @@
         <v>18112</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -3201,12 +3214,12 @@
         <v>18113</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -3215,12 +3228,12 @@
         <v>18119</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -3229,7 +3242,7 @@
         <v>18200</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32">
@@ -3237,25 +3250,25 @@
         <v>2</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C10" s="10">
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E10" s="10">
         <v>210</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G10" s="10">
         <v>46453</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3265,19 +3278,19 @@
         <v>22</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E11" s="36">
         <v>220</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="G11" s="10">
         <v>46493</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3291,7 +3304,7 @@
         <v>46593</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32">
@@ -3301,19 +3314,19 @@
         <v>23</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E13" s="10">
         <v>230</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="G13" s="10">
         <v>46510</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3327,19 +3340,19 @@
         <v>31</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E14" s="36">
         <v>310</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="G14" s="10">
         <v>58113</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3353,7 +3366,7 @@
         <v>58190</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3363,19 +3376,19 @@
         <v>32</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E16" s="36">
         <v>321</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="G16" s="10">
         <v>58221</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3389,7 +3402,7 @@
         <v>58222</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3401,13 +3414,13 @@
         <v>322</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="G18" s="10">
         <v>62010</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="32">
@@ -3421,7 +3434,7 @@
         <v>62021</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32">
@@ -3435,7 +3448,7 @@
         <v>62090</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="32">
@@ -3445,19 +3458,19 @@
         <v>33</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E21" s="10">
         <v>331</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="G21" s="10">
         <v>63120</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3469,13 +3482,13 @@
         <v>332</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="G22" s="10">
         <v>63111</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3489,7 +3502,7 @@
         <v>63991</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3497,25 +3510,25 @@
         <v>4</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C24" s="36">
         <v>41</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E24" s="36">
         <v>410</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="G24" s="10">
         <v>70119</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3529,7 +3542,7 @@
         <v>70129</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3543,7 +3556,7 @@
         <v>70130</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3553,19 +3566,19 @@
         <v>42</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="E27" s="36">
         <v>420</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="G27" s="10">
         <v>72921</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3579,7 +3592,7 @@
         <v>72923</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3589,19 +3602,19 @@
         <v>43</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E29" s="36">
         <v>430</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="G29" s="10">
         <v>72922</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3615,7 +3628,7 @@
         <v>72924</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3625,19 +3638,19 @@
         <v>44</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E31" s="36">
         <v>440</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="G31" s="10">
         <v>72121</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3651,7 +3664,7 @@
         <v>72122</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3665,7 +3678,7 @@
         <v>72129</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3679,19 +3692,19 @@
         <v>60</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E34" s="36">
         <v>600</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="G34" s="36">
         <v>94120</v>
       </c>
-      <c r="H34" s="39" t="s">
-        <v>152</v>
+      <c r="H34" s="40" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3726,41 +3739,17 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="F31:F33"/>
@@ -3777,17 +3766,41 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3798,8 +3811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABA8F6A-62C6-4246-A783-DCC256FD3A01}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="F4:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3816,73 +3829,73 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="44"/>
+      <c r="A2" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="17" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>218</v>
+      <c r="B4" s="54" t="s">
+        <v>194</v>
       </c>
       <c r="C4" s="33">
         <v>11</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="59">
+        <v>207</v>
+      </c>
+      <c r="E4" s="45">
         <v>110</v>
       </c>
-      <c r="F4" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="54">
+      <c r="F4" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="47">
         <v>351</v>
       </c>
-      <c r="H4" s="59" t="s">
-        <v>155</v>
+      <c r="H4" s="45" t="s">
+        <v>132</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3890,15 +3903,15 @@
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="3" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3906,15 +3919,15 @@
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3922,19 +3935,19 @@
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>163</v>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>140</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3942,15 +3955,15 @@
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="3" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3958,75 +3971,75 @@
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="3" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="64">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="5" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E10" s="6">
         <v>120</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="33">
         <v>2</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>219</v>
+      <c r="B11" s="54" t="s">
+        <v>195</v>
       </c>
       <c r="C11" s="9">
         <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E11" s="8">
         <v>210</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G11" s="4">
         <v>520</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="I11" s="4">
         <v>5200</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4036,25 +4049,25 @@
         <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="E12" s="8">
         <v>220</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="G12" s="4">
         <v>520</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="I12" s="4">
         <v>5200</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4064,85 +4077,85 @@
         <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E13" s="8">
         <v>230</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="G13" s="4">
         <v>520</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="I13" s="4">
         <v>5200</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="33">
         <v>3</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>220</v>
+      <c r="B14" s="54" t="s">
+        <v>196</v>
       </c>
       <c r="C14" s="9">
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="E14" s="8">
         <v>310</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="G14" s="4">
         <v>630</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="I14" s="4">
         <v>6300</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
-      <c r="C15" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="52">
+      <c r="C15" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="53">
         <v>321</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="G15" s="54">
+      <c r="F15" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="47">
         <v>621</v>
       </c>
-      <c r="H15" s="54" t="s">
-        <v>176</v>
+      <c r="H15" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4150,15 +4163,15 @@
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="3" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4166,19 +4179,19 @@
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="3" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4186,23 +4199,23 @@
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="52">
+      <c r="E18" s="53">
         <v>322</v>
       </c>
-      <c r="F18" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="G18" s="54">
+      <c r="F18" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="G18" s="47">
         <v>621</v>
       </c>
-      <c r="H18" s="54" t="s">
-        <v>176</v>
+      <c r="H18" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4210,15 +4223,15 @@
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="3" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4226,103 +4239,103 @@
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="3" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
-      <c r="C21" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>211</v>
+      <c r="C21" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>187</v>
       </c>
       <c r="E21" s="8">
         <v>331</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="G21" s="4">
         <v>610</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
-      <c r="C22" s="47"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="33"/>
       <c r="E22" s="8">
         <v>332</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G22" s="4">
         <v>610</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="33">
         <v>4</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="52">
+      <c r="B23" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="53">
         <v>410</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>137</v>
+      <c r="F23" s="53" t="s">
+        <v>114</v>
       </c>
       <c r="G23" s="4">
         <v>721</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4330,19 +4343,19 @@
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54">
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47">
         <v>729</v>
       </c>
-      <c r="H24" s="54" t="s">
-        <v>188</v>
+      <c r="H24" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4350,15 +4363,15 @@
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4366,15 +4379,15 @@
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="3" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4384,25 +4397,25 @@
         <v>42</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" s="52">
+        <v>190</v>
+      </c>
+      <c r="E27" s="53">
         <v>420</v>
       </c>
-      <c r="F27" s="52" t="s">
-        <v>141</v>
+      <c r="F27" s="53" t="s">
+        <v>118</v>
       </c>
       <c r="G27" s="4">
         <v>721</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4410,19 +4423,19 @@
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54">
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47">
         <v>729</v>
       </c>
-      <c r="H28" s="54" t="s">
-        <v>188</v>
+      <c r="H28" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4430,15 +4443,15 @@
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4446,15 +4459,15 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
       <c r="I30" s="3" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4464,25 +4477,25 @@
         <v>43</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="52">
+        <v>191</v>
+      </c>
+      <c r="E31" s="53">
         <v>430</v>
       </c>
-      <c r="F31" s="52" t="s">
-        <v>144</v>
+      <c r="F31" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="G31" s="4">
         <v>721</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4490,19 +4503,19 @@
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54">
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47">
         <v>729</v>
       </c>
-      <c r="H32" s="54" t="s">
-        <v>188</v>
+      <c r="H32" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4510,15 +4523,15 @@
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
       <c r="I33" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4526,15 +4539,15 @@
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
       <c r="I34" s="3" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4543,26 +4556,26 @@
       <c r="C35" s="33">
         <v>44</v>
       </c>
-      <c r="D35" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="E35" s="52">
+      <c r="D35" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="53">
         <v>440</v>
       </c>
-      <c r="F35" s="52" t="s">
-        <v>147</v>
+      <c r="F35" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="G35" s="4">
         <v>721</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4570,19 +4583,19 @@
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54">
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47">
         <v>729</v>
       </c>
-      <c r="H36" s="54" t="s">
-        <v>188</v>
+      <c r="H36" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4590,15 +4603,15 @@
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
       <c r="I37" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4606,47 +4619,47 @@
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
       <c r="I38" s="3" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="33">
         <v>6</v>
       </c>
-      <c r="B39" s="47" t="s">
-        <v>222</v>
+      <c r="B39" s="54" t="s">
+        <v>198</v>
       </c>
       <c r="C39" s="33">
         <v>60</v>
       </c>
-      <c r="D39" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="E39" s="52">
+      <c r="D39" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="53">
         <v>600</v>
       </c>
-      <c r="F39" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="54">
+      <c r="F39" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="47">
         <v>810</v>
       </c>
-      <c r="H39" s="54" t="s">
-        <v>195</v>
+      <c r="H39" s="47" t="s">
+        <v>172</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="42" customHeight="1">
@@ -4654,68 +4667,19 @@
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
       <c r="I40" s="3" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C27:C30"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="B23:B38"/>
     <mergeCell ref="A23:A38"/>
@@ -4732,6 +4696,55 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B14:B22"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G2:H3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4742,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3553689-B5DE-154F-BAF5-FB3EEFBBFC6E}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="91" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:J14"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -4762,757 +4775,757 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="68" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="63"/>
+      <c r="G2" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="63"/>
+      <c r="I2" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="74"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="64">
+        <v>1</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="65">
+        <v>11</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="65">
+        <v>110</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="18">
+        <v>27211</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="21">
+        <v>3612</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="65">
+        <v>27302</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="21">
+        <v>3691</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="21">
+        <v>3692</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65">
+        <v>12</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="65">
+        <v>120</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="18">
+        <v>18111</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="71">
+        <v>1500</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="18">
+        <v>18112</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="18">
+        <v>18113</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="18">
+        <v>18119</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="18">
+        <v>18200</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
+    </row>
+    <row r="11" spans="1:10" ht="32">
+      <c r="A11" s="64">
+        <v>2</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="18">
+        <v>21</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="18">
+        <v>210</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="18">
+        <v>46453</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="71">
+        <v>5200</v>
+      </c>
+      <c r="J11" s="72" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="70"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="65">
+        <v>22</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="65">
+        <v>220</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="18">
+        <v>46493</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="70"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="18">
+        <v>46593</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" spans="1:10" ht="32">
+      <c r="A14" s="70"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="18">
+        <v>23</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="18">
+        <v>230</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="18">
+        <v>46510</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="64">
+        <v>3</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="65">
+        <v>31</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="65">
+        <v>310</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="18">
+        <v>58113</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="71">
+        <v>6300</v>
+      </c>
+      <c r="J15" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="70"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="18">
+        <v>58190</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="70"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="65">
+        <v>32</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="65">
+        <v>321</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="18">
+        <v>58221</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="76" t="s">
+      <c r="I17" s="71">
+        <v>6212</v>
+      </c>
+      <c r="J17" s="72" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="70"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="18">
+        <v>58222</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="76" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="67"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="71">
-        <v>1</v>
-      </c>
-      <c r="B3" s="63" t="s">
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="70"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="65">
+        <v>322</v>
+      </c>
+      <c r="F19" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="63">
-        <v>11</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="63">
+      <c r="G19" s="18">
+        <v>62010</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
+    </row>
+    <row r="20" spans="1:10" ht="48" customHeight="1">
+      <c r="A20" s="70"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="18">
+        <v>62021</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="70"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="18">
+        <v>62090</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="21">
+        <v>6290</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="70"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="65">
+        <v>33</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="18">
+        <v>331</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="18">
+        <v>63120</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="21">
+        <v>6100</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="70"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="65">
+        <v>332</v>
+      </c>
+      <c r="F23" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="G3" s="19">
-        <v>27211</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="22">
-        <v>3612</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="71"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="63">
-        <v>27302</v>
-      </c>
-      <c r="H4" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" s="22">
-        <v>3691</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="71"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="22">
-        <v>3692</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="71"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63">
-        <v>12</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="63">
+      <c r="G23" s="18">
+        <v>63111</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="71">
+        <v>6212</v>
+      </c>
+      <c r="J23" s="75" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="58" customHeight="1">
+      <c r="A24" s="70"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="18">
+        <v>63991</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72"/>
+    </row>
+    <row r="25" spans="1:10" ht="23" customHeight="1">
+      <c r="A25" s="64">
+        <v>4</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="65">
+        <v>41</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="65">
+        <v>410</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="18">
+        <v>70119</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="22">
+        <v>7001</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="32" customHeight="1">
+      <c r="A26" s="70"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="18">
+        <v>70129</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="23">
+        <v>7002</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="70"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="18">
+        <v>70130</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="24">
+        <v>7003</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="70"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="65">
+        <v>42</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="65">
+        <v>420</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="18">
+        <v>72921</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="71">
+        <v>7210</v>
+      </c>
+      <c r="J28" s="72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="70"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="18">
+        <v>72923</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="19">
-        <v>18111</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="61">
-        <v>1500</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="71"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="19">
-        <v>18112</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="71"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="19">
-        <v>18113</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="71"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="19">
-        <v>18119</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="71"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="19">
-        <v>18200</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-    </row>
-    <row r="11" spans="1:10" ht="32">
-      <c r="A11" s="71">
-        <v>2</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="19">
-        <v>21</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="19">
-        <v>210</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="19">
-        <v>46453</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="61">
-        <v>5200</v>
-      </c>
-      <c r="J11" s="62" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="72"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="63">
-        <v>22</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="63">
-        <v>220</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="19">
-        <v>46493</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="72"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="19">
-        <v>46593</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
-    </row>
-    <row r="14" spans="1:10" ht="32">
-      <c r="A14" s="72"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="19">
-        <v>23</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="19">
-        <v>230</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="19">
-        <v>46510</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="71">
-        <v>3</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="63">
-        <v>31</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="63">
-        <v>310</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="19">
-        <v>58113</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="61">
-        <v>6300</v>
-      </c>
-      <c r="J15" s="62" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="72"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="19">
-        <v>58190</v>
-      </c>
-      <c r="H16" s="20" t="s">
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="70"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="65">
+        <v>43</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="65">
+        <v>430</v>
+      </c>
+      <c r="F30" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="72"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="63">
-        <v>32</v>
-      </c>
-      <c r="D17" s="63" t="s">
+      <c r="G30" s="18">
+        <v>72922</v>
+      </c>
+      <c r="H30" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="63">
-        <v>321</v>
-      </c>
-      <c r="F17" s="65" t="s">
+      <c r="I30" s="71">
+        <v>7292</v>
+      </c>
+      <c r="J30" s="72" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="70"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="18">
+        <v>72924</v>
+      </c>
+      <c r="H31" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="19">
-        <v>58221</v>
-      </c>
-      <c r="H17" s="20" t="s">
+      <c r="I31" s="71"/>
+      <c r="J31" s="72"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="70"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="65">
+        <v>44</v>
+      </c>
+      <c r="D32" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="61">
-        <v>6212</v>
-      </c>
-      <c r="J17" s="62" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="72"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="19">
-        <v>58222</v>
-      </c>
-      <c r="H18" s="20" t="s">
+      <c r="E32" s="65">
+        <v>440</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="18">
+        <v>72121</v>
+      </c>
+      <c r="H32" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="72"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="63">
-        <v>322</v>
-      </c>
-      <c r="F19" s="65" t="s">
+      <c r="I32" s="21">
+        <v>7210</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="70"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="18">
+        <v>72122</v>
+      </c>
+      <c r="H33" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="19">
-        <v>62010</v>
-      </c>
-      <c r="H19" s="20" t="s">
+      <c r="I33" s="71">
+        <v>7291</v>
+      </c>
+      <c r="J33" s="72" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="70"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="18">
+        <v>72129</v>
+      </c>
+      <c r="H34" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="62"/>
-    </row>
-    <row r="20" spans="1:10" ht="48" customHeight="1">
-      <c r="A20" s="72"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="19">
-        <v>62021</v>
-      </c>
-      <c r="H20" s="20" t="s">
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" thickBot="1">
+      <c r="A35" s="27">
+        <v>6</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="28">
+        <v>60</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="62"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="72"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="19">
-        <v>62090</v>
-      </c>
-      <c r="H21" s="20" t="s">
+      <c r="E35" s="28">
+        <v>600</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="28">
+        <v>94120</v>
+      </c>
+      <c r="H35" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="22">
-        <v>6290</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="72"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="63">
-        <v>33</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="19">
-        <v>331</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="19">
-        <v>63120</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="22">
-        <v>6100</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="72"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="63">
-        <v>332</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="19">
-        <v>63111</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="61">
-        <v>6212</v>
-      </c>
-      <c r="J23" s="64" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="58" customHeight="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="19">
-        <v>63991</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="61"/>
-      <c r="J24" s="62"/>
-    </row>
-    <row r="25" spans="1:10" ht="23" customHeight="1">
-      <c r="A25" s="71">
-        <v>4</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="63">
-        <v>41</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="63">
-        <v>410</v>
-      </c>
-      <c r="F25" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="19">
-        <v>70119</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" s="23">
-        <v>7001</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="32" customHeight="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="19">
-        <v>70129</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" s="24">
-        <v>7002</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="72"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="19">
-        <v>70130</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="25">
-        <v>7003</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="72"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="63">
-        <v>42</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="63">
-        <v>420</v>
-      </c>
-      <c r="F28" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="19">
-        <v>72921</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="61">
-        <v>7210</v>
-      </c>
-      <c r="J28" s="62" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="72"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="19">
-        <v>72923</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I29" s="61"/>
-      <c r="J29" s="62"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="72"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="63">
-        <v>43</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="E30" s="63">
-        <v>430</v>
-      </c>
-      <c r="F30" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="19">
-        <v>72922</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" s="61">
-        <v>7292</v>
-      </c>
-      <c r="J30" s="62" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="72"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="19">
-        <v>72924</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="61"/>
-      <c r="J31" s="62"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="72"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="63">
-        <v>44</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="63">
-        <v>440</v>
-      </c>
-      <c r="F32" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="19">
-        <v>72121</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I32" s="22">
-        <v>7210</v>
-      </c>
-      <c r="J32" s="26" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="72"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="19">
-        <v>72122</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" s="61">
-        <v>7291</v>
-      </c>
-      <c r="J33" s="62" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="72"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="19">
-        <v>72129</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" s="61"/>
-      <c r="J34" s="62"/>
-    </row>
-    <row r="35" spans="1:10" ht="18" thickBot="1">
-      <c r="A35" s="28">
-        <v>6</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="29">
-        <v>60</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="29">
-        <v>600</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" s="29">
-        <v>94120</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" s="31">
+      <c r="I35" s="30">
         <v>8101</v>
       </c>
-      <c r="J35" s="32" t="s">
-        <v>268</v>
+      <c r="J35" s="31" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5527,30 +5540,41 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
@@ -5565,41 +5589,30 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="F6:F10"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5607,12 +5620,733 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6169B618-1DCC-114A-8272-6E54546A366B}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" thickBot="1">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="68" customHeight="1">
+      <c r="A2" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="63"/>
+      <c r="G2" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="74"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="64">
+        <v>1</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="65">
+        <v>110</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="18">
+        <v>27211</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="21">
+        <v>3612</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="65">
+        <v>27302</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="21">
+        <v>3691</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="21">
+        <v>3692</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65">
+        <v>120</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="18">
+        <v>18111</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="71">
+        <v>1500</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="18">
+        <v>18112</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="72"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="18">
+        <v>18113</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="71"/>
+      <c r="H8" s="72"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="18">
+        <v>18119</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="71"/>
+      <c r="H9" s="72"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="18">
+        <v>18200</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="64">
+        <v>2</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="18">
+        <v>210</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="18">
+        <v>46453</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="71">
+        <v>5200</v>
+      </c>
+      <c r="H11" s="72" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="70"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="65">
+        <v>220</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="18">
+        <v>46493</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="70"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="18">
+        <v>46593</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="70"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="18">
+        <v>230</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="18">
+        <v>46510</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="64">
+        <v>3</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="65">
+        <v>310</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="18">
+        <v>58113</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="71">
+        <v>6300</v>
+      </c>
+      <c r="H15" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="70"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="18">
+        <v>58190</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="70"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="65">
+        <v>321</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="18">
+        <v>58221</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="71">
+        <v>6212</v>
+      </c>
+      <c r="H17" s="72" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="70"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="18">
+        <v>58222</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="70"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="65">
+        <v>322</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="18">
+        <v>62010</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
+    </row>
+    <row r="20" spans="1:8" ht="48" customHeight="1">
+      <c r="A20" s="70"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="18">
+        <v>62021</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="71"/>
+      <c r="H20" s="72"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="70"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="18">
+        <v>62090</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="21">
+        <v>6290</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="70"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="18">
+        <v>331</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="18">
+        <v>63120</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="21">
+        <v>6100</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="70"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="65">
+        <v>332</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="18">
+        <v>63111</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="71">
+        <v>6212</v>
+      </c>
+      <c r="H23" s="75" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="58" customHeight="1">
+      <c r="A24" s="70"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="18">
+        <v>63991</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
+    </row>
+    <row r="25" spans="1:8" ht="23" customHeight="1">
+      <c r="A25" s="64">
+        <v>4</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="65">
+        <v>410</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="18">
+        <v>70119</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="22">
+        <v>7001</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32" customHeight="1">
+      <c r="A26" s="70"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="18">
+        <v>70129</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="23">
+        <v>7002</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="70"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="18">
+        <v>70130</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="24">
+        <v>7003</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="70"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="65">
+        <v>420</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="18">
+        <v>72921</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="71">
+        <v>7210</v>
+      </c>
+      <c r="H28" s="72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="70"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="18">
+        <v>72923</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="70"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="65">
+        <v>430</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="18">
+        <v>72922</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="71">
+        <v>7292</v>
+      </c>
+      <c r="H30" s="72" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="70"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="18">
+        <v>72924</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="70"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="65">
+        <v>440</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="18">
+        <v>72121</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="21">
+        <v>7210</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="70"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="18">
+        <v>72122</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="71">
+        <v>7291</v>
+      </c>
+      <c r="H33" s="72" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="70"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="18">
+        <v>72129</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" thickBot="1">
+      <c r="A35" s="27">
+        <v>6</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="28">
+        <v>600</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="28">
+        <v>94120</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="30">
+        <v>8101</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C5"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D83ED3-3841-8540-A1F3-FE4FD08BBB6E}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -5624,17 +6358,17 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="33" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -5642,205 +6376,205 @@
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
-      <c r="P2" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
+      <c r="P2" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="7" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="33" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>201408</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>191024</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>180479</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>165867</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>161984</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16">
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
         <v>97691</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>93390</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>88798</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>85246</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <v>84924</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="18">
+      <c r="O4" s="15"/>
+      <c r="P4" s="17">
         <f>J4/D4*100</f>
         <v>48.504031617413411</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="17">
         <f t="shared" ref="Q4:U4" si="0">K4/E4*100</f>
         <v>48.889144819499123</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="17">
         <f t="shared" si="0"/>
         <v>49.201292117088414</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="17">
         <f t="shared" si="0"/>
         <v>51.394189320359082</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="17">
         <f t="shared" si="0"/>
         <v>52.427400237060453</v>
       </c>
-      <c r="U4" s="18" t="e">
+      <c r="U4" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="16">
+      <c r="C5" s="32"/>
+      <c r="D5" s="15">
         <v>13333</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>12879</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>12447</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>13872</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>13536</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15">
         <v>9529</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>9416</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>9202</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="15">
         <v>8254</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="15">
         <v>7814</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="18">
+      <c r="O5" s="15"/>
+      <c r="P5" s="17">
         <f>J5/D5*100</f>
         <v>71.4692867321683</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="17">
         <f t="shared" ref="Q5:Q24" si="1">K5/E5*100</f>
         <v>73.111266402671021</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="17">
         <f t="shared" ref="R5:R24" si="2">L5/F5*100</f>
         <v>73.929460914276532</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="17">
         <f t="shared" ref="S5:S24" si="3">M5/G5*100</f>
         <v>59.50115340253749</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="17">
         <f t="shared" ref="T5:T24" si="4">N5/H5*100</f>
         <v>57.727541371158395</v>
       </c>
-      <c r="U5" s="18" t="e">
+      <c r="U5" s="17" t="e">
         <f t="shared" ref="U5:U24" si="5">O5/I5*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -5849,61 +6583,61 @@
       <c r="A6" s="33"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="16">
+        <v>206</v>
+      </c>
+      <c r="D6" s="15">
         <v>12417</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>11963</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>11498</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>13872</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>13536</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15">
         <v>9295</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>9184</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>8960</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="15">
         <v>8254</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="15">
         <v>7814</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="18">
+      <c r="O6" s="15"/>
+      <c r="P6" s="17">
         <f t="shared" ref="P6:P24" si="6">J6/D6*100</f>
         <v>74.857050817427719</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="17">
         <f t="shared" si="1"/>
         <v>76.770040959625504</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="17">
         <f t="shared" si="2"/>
         <v>77.926595929726901</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="17">
         <f t="shared" si="3"/>
         <v>59.50115340253749</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="17">
         <f t="shared" si="4"/>
         <v>57.727541371158395</v>
       </c>
-      <c r="U6" s="18" t="e">
+      <c r="U6" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -5912,116 +6646,116 @@
       <c r="A7" s="33"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="15">
+        <v>916</v>
+      </c>
+      <c r="E7" s="15">
+        <v>916</v>
+      </c>
+      <c r="F7" s="15">
+        <v>950</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
         <v>233</v>
       </c>
-      <c r="D7" s="16">
-        <v>916</v>
-      </c>
-      <c r="E7" s="16">
-        <v>916</v>
-      </c>
-      <c r="F7" s="16">
-        <v>950</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16">
-        <v>233</v>
-      </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>232</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>241</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="18">
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="17">
         <f t="shared" si="6"/>
         <v>25.436681222707424</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <f t="shared" si="1"/>
         <v>25.327510917030565</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="17">
         <f t="shared" si="2"/>
         <v>25.368421052631579</v>
       </c>
-      <c r="S7" s="18" t="e">
+      <c r="S7" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T7" s="18" t="e">
+      <c r="T7" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U7" s="18" t="e">
+      <c r="U7" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="33"/>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="16">
+      <c r="C8" s="32"/>
+      <c r="D8" s="15">
         <v>25059</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>25313</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>26115</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>20239</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>25348</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15">
         <v>9071</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>9644</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>9651</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <v>10461</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="15">
         <v>13396</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="18">
+      <c r="O8" s="15"/>
+      <c r="P8" s="17">
         <f t="shared" si="6"/>
         <v>36.198571371563112</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="17">
         <f t="shared" si="1"/>
         <v>38.099000513570104</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="17">
         <f t="shared" si="2"/>
         <v>36.955772544514645</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="17">
         <f t="shared" si="3"/>
         <v>51.687336330846392</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="17">
         <f t="shared" si="4"/>
         <v>52.848350954710433</v>
       </c>
-      <c r="U8" s="18" t="e">
+      <c r="U8" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -6030,61 +6764,61 @@
       <c r="A9" s="33"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="16">
+        <v>180</v>
+      </c>
+      <c r="D9" s="15">
         <v>307</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>298</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>311</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>281</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>465</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15">
         <v>237</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>265</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>273</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <v>253</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="15">
         <v>274</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="18">
+      <c r="O9" s="15"/>
+      <c r="P9" s="17">
         <f>J9/D9*100</f>
         <v>77.198697068403916</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="17">
         <f t="shared" si="1"/>
         <v>88.926174496644293</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="17">
         <f t="shared" si="2"/>
         <v>87.781350482315119</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="17">
         <f t="shared" si="3"/>
         <v>90.035587188612098</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="17">
         <f t="shared" si="4"/>
         <v>58.924731182795696</v>
       </c>
-      <c r="U9" s="18" t="e">
+      <c r="U9" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -6093,61 +6827,61 @@
       <c r="A10" s="33"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="16">
+        <v>181</v>
+      </c>
+      <c r="D10" s="15">
         <v>16133</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>15887</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>15429</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>12648</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>15953</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15">
         <v>6774</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>7392</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>7316</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <v>7792</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <v>9677</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="18">
+      <c r="O10" s="15"/>
+      <c r="P10" s="17">
         <f t="shared" si="6"/>
         <v>41.988470836174301</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="17">
         <f t="shared" si="1"/>
         <v>46.528608296091143</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R10" s="17">
         <f t="shared" si="2"/>
         <v>47.417201374035905</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="17">
         <f t="shared" si="3"/>
         <v>61.606578115117017</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10" s="17">
         <f t="shared" si="4"/>
         <v>60.659437096470882</v>
       </c>
-      <c r="U10" s="18" t="e">
+      <c r="U10" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -6156,124 +6890,124 @@
       <c r="A11" s="33"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="16">
+        <v>182</v>
+      </c>
+      <c r="D11" s="15">
         <v>8619</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>9128</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>10376</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>7310</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>8930</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16">
+      <c r="I11" s="15"/>
+      <c r="J11" s="15">
         <v>2059</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>1987</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>2062</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <v>2416</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <v>3445</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="18">
+      <c r="O11" s="15"/>
+      <c r="P11" s="17">
         <f t="shared" si="6"/>
         <v>23.889082260122983</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="17">
         <f t="shared" si="1"/>
         <v>21.768185801928134</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="17">
         <f t="shared" si="2"/>
         <v>19.8727833461835</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="17">
         <f t="shared" si="3"/>
         <v>33.050615595075236</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="17">
         <f t="shared" si="4"/>
         <v>38.577827547592385</v>
       </c>
-      <c r="U11" s="18" t="e">
+      <c r="U11" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="33"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="16">
+      <c r="C12" s="32"/>
+      <c r="D12" s="15">
         <v>57939</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>53065</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>45280</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>45490</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>47429</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15">
         <v>29114</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>24738</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>21027</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="15">
         <v>26050</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="15">
         <v>27162</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="18">
+      <c r="O12" s="15"/>
+      <c r="P12" s="17">
         <f t="shared" si="6"/>
         <v>50.249400231277718</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="17">
         <f t="shared" si="1"/>
         <v>46.618298313389239</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="17">
         <f t="shared" si="2"/>
         <v>46.437720848056536</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="17">
         <f t="shared" si="3"/>
         <v>57.265333040228619</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="17">
         <f t="shared" si="4"/>
         <v>57.268759619641997</v>
       </c>
-      <c r="U12" s="18" t="e">
+      <c r="U12" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -6282,61 +7016,61 @@
       <c r="A13" s="33"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="16">
+        <v>183</v>
+      </c>
+      <c r="D13" s="15">
         <v>777</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>743</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>793</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>152</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>171</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15">
         <v>121</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <v>135</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>120</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="15">
         <v>86</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="15">
         <v>75</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="18">
+      <c r="O13" s="15"/>
+      <c r="P13" s="17">
         <f t="shared" si="6"/>
         <v>15.572715572715573</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="17">
         <f t="shared" si="1"/>
         <v>18.169582772543741</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13" s="17">
         <f t="shared" si="2"/>
         <v>15.132408575031524</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="17">
         <f t="shared" si="3"/>
         <v>56.578947368421048</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="17">
         <f t="shared" si="4"/>
         <v>43.859649122807014</v>
       </c>
-      <c r="U13" s="18" t="e">
+      <c r="U13" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -6345,61 +7079,61 @@
       <c r="A14" s="33"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="16">
+        <v>210</v>
+      </c>
+      <c r="D14" s="15">
         <v>32746</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>29998</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>26056</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>23919</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>20753</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16">
+      <c r="I14" s="15"/>
+      <c r="J14" s="15">
         <v>17778</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>14084</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>12065</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="15">
         <v>13709</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="15">
         <v>12272</v>
       </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="18">
+      <c r="O14" s="15"/>
+      <c r="P14" s="17">
         <f t="shared" si="6"/>
         <v>54.290600378672202</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="17">
         <f t="shared" si="1"/>
         <v>46.949796653110212</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14" s="17">
         <f t="shared" si="2"/>
         <v>46.304114215535769</v>
       </c>
-      <c r="S14" s="18">
+      <c r="S14" s="17">
         <f t="shared" si="3"/>
         <v>57.314268991178565</v>
       </c>
-      <c r="T14" s="18">
+      <c r="T14" s="17">
         <f t="shared" si="4"/>
         <v>59.133619235773139</v>
       </c>
-      <c r="U14" s="18" t="e">
+      <c r="U14" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -6408,61 +7142,61 @@
       <c r="A15" s="33"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="16">
+        <v>211</v>
+      </c>
+      <c r="D15" s="15">
         <v>20162</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>19217</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>16087</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>18919</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <v>24023</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16">
+      <c r="I15" s="15"/>
+      <c r="J15" s="15">
         <v>9141</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <v>8761</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>7428</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="15">
         <v>10664</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="15">
         <v>12966</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="18">
+      <c r="O15" s="15"/>
+      <c r="P15" s="17">
         <f t="shared" si="6"/>
         <v>45.337764110703304</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="17">
         <f t="shared" si="1"/>
         <v>45.589842327106204</v>
       </c>
-      <c r="R15" s="18">
+      <c r="R15" s="17">
         <f t="shared" si="2"/>
         <v>46.173929259650649</v>
       </c>
-      <c r="S15" s="18">
+      <c r="S15" s="17">
         <f t="shared" si="3"/>
         <v>56.36661557164755</v>
       </c>
-      <c r="T15" s="18">
+      <c r="T15" s="17">
         <f t="shared" si="4"/>
         <v>53.973275610872918</v>
       </c>
-      <c r="U15" s="18" t="e">
+      <c r="U15" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -6471,61 +7205,61 @@
       <c r="A16" s="33"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="16">
+        <v>212</v>
+      </c>
+      <c r="D16" s="15">
         <v>775</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>712</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>700</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>707</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <v>895</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16">
+      <c r="I16" s="15"/>
+      <c r="J16" s="15">
         <v>380</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>356</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>348</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="15">
         <v>358</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="15">
         <v>491</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="18">
+      <c r="O16" s="15"/>
+      <c r="P16" s="17">
         <f t="shared" si="6"/>
         <v>49.032258064516128</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="17">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="17">
         <f t="shared" si="2"/>
         <v>49.714285714285715</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="17">
         <f t="shared" si="3"/>
         <v>50.636492220650645</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="17">
         <f t="shared" si="4"/>
         <v>54.86033519553073</v>
       </c>
-      <c r="U16" s="18" t="e">
+      <c r="U16" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -6534,124 +7268,124 @@
       <c r="A17" s="33"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="16">
+        <v>213</v>
+      </c>
+      <c r="D17" s="15">
         <v>3479</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>2396</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>1644</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>1793</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <v>1587</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16">
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
         <v>1694</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <v>1402</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="15">
         <v>1066</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="15">
         <v>1233</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="15">
         <v>1358</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="18">
+      <c r="O17" s="15"/>
+      <c r="P17" s="17">
         <f t="shared" si="6"/>
         <v>48.692152917505034</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="17">
         <f t="shared" si="1"/>
         <v>58.514190317195322</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17" s="17">
         <f t="shared" si="2"/>
         <v>64.84184914841849</v>
       </c>
-      <c r="S17" s="18">
+      <c r="S17" s="17">
         <f t="shared" si="3"/>
         <v>68.767428890128286</v>
       </c>
-      <c r="T17" s="18">
+      <c r="T17" s="17">
         <f t="shared" si="4"/>
         <v>85.57025834908633</v>
       </c>
-      <c r="U17" s="18" t="e">
+      <c r="U17" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="33"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="16">
+      <c r="C18" s="32"/>
+      <c r="D18" s="15">
         <v>105001</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>99603</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>96498</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>86134</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <v>75546</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16">
+      <c r="I18" s="15"/>
+      <c r="J18" s="15">
         <v>49904</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <v>49438</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <v>48780</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="15">
         <v>40351</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="15">
         <v>36435</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="18">
+      <c r="O18" s="15"/>
+      <c r="P18" s="17">
         <f t="shared" si="6"/>
         <v>47.527166407938971</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="17">
         <f t="shared" si="1"/>
         <v>49.635051153077718</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="17">
         <f t="shared" si="2"/>
         <v>50.550270471926886</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18" s="17">
         <f t="shared" si="3"/>
         <v>46.846773631783037</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18" s="17">
         <f t="shared" si="4"/>
         <v>48.228893654197442</v>
       </c>
-      <c r="U18" s="18" t="e">
+      <c r="U18" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -6660,61 +7394,61 @@
       <c r="A19" s="33"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="16">
+        <v>214</v>
+      </c>
+      <c r="D19" s="15">
         <v>37417</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>34342</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>34341</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>25786</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>12126</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16">
+      <c r="I19" s="15"/>
+      <c r="J19" s="15">
         <v>9060</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <v>9195</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>8950</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="15">
         <v>7937</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="15">
         <v>6376</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="18">
+      <c r="O19" s="15"/>
+      <c r="P19" s="17">
         <f t="shared" si="6"/>
         <v>24.213592751957666</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="17">
         <f t="shared" si="1"/>
         <v>26.774794712014444</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19" s="17">
         <f t="shared" si="2"/>
         <v>26.062141463556681</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19" s="17">
         <f t="shared" si="3"/>
         <v>30.780268362677422</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19" s="17">
         <f t="shared" si="4"/>
         <v>52.581230413986482</v>
       </c>
-      <c r="U19" s="18" t="e">
+      <c r="U19" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -6723,61 +7457,61 @@
       <c r="A20" s="33"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="16">
+        <v>190</v>
+      </c>
+      <c r="D20" s="15">
         <v>10408</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>10110</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>9897</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>9719</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>11933</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16">
+      <c r="I20" s="15"/>
+      <c r="J20" s="15">
         <v>9242</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <v>9117</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>8922</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="15">
         <v>8361</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="15">
         <v>7475</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="18">
+      <c r="O20" s="15"/>
+      <c r="P20" s="17">
         <f t="shared" si="6"/>
         <v>88.797079169869335</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="17">
         <f t="shared" si="1"/>
         <v>90.178041543026708</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20" s="17">
         <f t="shared" si="2"/>
         <v>90.148529857532594</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20" s="17">
         <f t="shared" si="3"/>
         <v>86.027369070892064</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20" s="17">
         <f t="shared" si="4"/>
         <v>62.641414564652642</v>
       </c>
-      <c r="U20" s="18" t="e">
+      <c r="U20" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -6786,61 +7520,61 @@
       <c r="A21" s="33"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="16">
+        <v>191</v>
+      </c>
+      <c r="D21" s="15">
         <v>2360</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>2031</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>1743</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <v>2009</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <v>2409</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16">
+      <c r="I21" s="15"/>
+      <c r="J21" s="15">
         <v>2095</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="15">
         <v>1940</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="15">
         <v>1691</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="15">
         <v>1781</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="15">
         <v>1805</v>
       </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="18">
+      <c r="O21" s="15"/>
+      <c r="P21" s="17">
         <f t="shared" si="6"/>
         <v>88.771186440677965</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="17">
         <f t="shared" si="1"/>
         <v>95.519448547513548</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21" s="17">
         <f t="shared" si="2"/>
         <v>97.0166379804934</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="17">
         <f t="shared" si="3"/>
         <v>88.651070184171232</v>
       </c>
-      <c r="T21" s="18">
+      <c r="T21" s="17">
         <f t="shared" si="4"/>
         <v>74.927355749273559</v>
       </c>
-      <c r="U21" s="18" t="e">
+      <c r="U21" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -6849,124 +7583,124 @@
       <c r="A22" s="33"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D22" s="16">
+        <v>215</v>
+      </c>
+      <c r="D22" s="15">
         <v>54816</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>53120</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>50517</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>48621</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <v>49078</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16">
+      <c r="I22" s="15"/>
+      <c r="J22" s="15">
         <v>29507</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="15">
         <v>29187</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="15">
         <v>29216</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="15">
         <v>22272</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="15">
         <v>20779</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="18">
+      <c r="O22" s="15"/>
+      <c r="P22" s="17">
         <f t="shared" si="6"/>
         <v>53.829173963806184</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22" s="17">
         <f t="shared" si="1"/>
         <v>54.945406626506021</v>
       </c>
-      <c r="R22" s="18">
+      <c r="R22" s="17">
         <f t="shared" si="2"/>
         <v>57.833996476433683</v>
       </c>
-      <c r="S22" s="18">
+      <c r="S22" s="17">
         <f t="shared" si="3"/>
         <v>45.807367187017952</v>
       </c>
-      <c r="T22" s="18">
+      <c r="T22" s="17">
         <f t="shared" si="4"/>
         <v>42.338726109458413</v>
       </c>
-      <c r="U22" s="18" t="e">
+      <c r="U22" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="14" customHeight="1">
       <c r="A23" s="33"/>
-      <c r="B23" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="16">
+      <c r="B23" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="15">
         <v>77</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>163</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>138</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <v>132</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <v>125</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16">
+      <c r="I23" s="15"/>
+      <c r="J23" s="15">
         <v>75</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="15">
         <v>154</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="15">
         <v>138</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="15">
         <v>129</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="15">
         <v>116</v>
       </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="18">
+      <c r="O23" s="15"/>
+      <c r="P23" s="17">
         <f t="shared" si="6"/>
         <v>97.402597402597408</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="17">
         <f t="shared" si="1"/>
         <v>94.478527607361968</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23" s="17">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="S23" s="18">
+      <c r="S23" s="17">
         <f t="shared" si="3"/>
         <v>97.727272727272734</v>
       </c>
-      <c r="T23" s="18">
+      <c r="T23" s="17">
         <f t="shared" si="4"/>
         <v>92.800000000000011</v>
       </c>
-      <c r="U23" s="18" t="e">
+      <c r="U23" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -6975,86 +7709,1405 @@
       <c r="A24" s="33"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="16">
+        <v>216</v>
+      </c>
+      <c r="D24" s="15">
         <v>77</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>163</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>138</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <v>132</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="15">
         <v>125</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16">
+      <c r="I24" s="15"/>
+      <c r="J24" s="15">
         <v>75</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <v>154</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="15">
         <v>138</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="15">
         <v>129</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="15">
         <v>116</v>
       </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="18">
+      <c r="O24" s="15"/>
+      <c r="P24" s="17">
         <f t="shared" si="6"/>
         <v>97.402597402597408</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="17">
         <f t="shared" si="1"/>
         <v>94.478527607361968</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24" s="17">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="S24" s="18">
+      <c r="S24" s="17">
         <f t="shared" si="3"/>
         <v>97.727272727272734</v>
       </c>
-      <c r="T24" s="18">
+      <c r="T24" s="17">
         <f t="shared" si="4"/>
         <v>92.800000000000011</v>
       </c>
-      <c r="U24" s="18" t="e">
+      <c r="U24" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="C26" s="15" t="s">
-        <v>241</v>
+      <c r="C26" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="G30" s="17"/>
+      <c r="G30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="P2:U2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8D8063-3EC7-BC44-975E-E7B331591E2F}">
+  <dimension ref="A1:R30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="15">
+        <v>201408</v>
+      </c>
+      <c r="E4" s="15">
+        <v>191024</v>
+      </c>
+      <c r="F4" s="15">
+        <v>180479</v>
+      </c>
+      <c r="G4" s="15">
+        <v>165867</v>
+      </c>
+      <c r="H4" s="15">
+        <v>161984</v>
+      </c>
+      <c r="I4" s="15">
+        <v>97691</v>
+      </c>
+      <c r="J4" s="15">
+        <v>93390</v>
+      </c>
+      <c r="K4" s="15">
+        <v>88798</v>
+      </c>
+      <c r="L4" s="15">
+        <v>85246</v>
+      </c>
+      <c r="M4" s="15">
+        <v>84924</v>
+      </c>
+      <c r="N4" s="17">
+        <f>I4/D4*100</f>
+        <v>48.504031617413411</v>
+      </c>
+      <c r="O4" s="17">
+        <f>J4/E4*100</f>
+        <v>48.889144819499123</v>
+      </c>
+      <c r="P4" s="17">
+        <f>K4/F4*100</f>
+        <v>49.201292117088414</v>
+      </c>
+      <c r="Q4" s="17">
+        <f>L4/G4*100</f>
+        <v>51.394189320359082</v>
+      </c>
+      <c r="R4" s="17">
+        <f>M4/H4*100</f>
+        <v>52.427400237060453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="15">
+        <v>13333</v>
+      </c>
+      <c r="E5" s="15">
+        <v>12879</v>
+      </c>
+      <c r="F5" s="15">
+        <v>12447</v>
+      </c>
+      <c r="G5" s="15">
+        <v>13872</v>
+      </c>
+      <c r="H5" s="15">
+        <v>13536</v>
+      </c>
+      <c r="I5" s="15">
+        <v>9529</v>
+      </c>
+      <c r="J5" s="15">
+        <v>9416</v>
+      </c>
+      <c r="K5" s="15">
+        <v>9202</v>
+      </c>
+      <c r="L5" s="15">
+        <v>8254</v>
+      </c>
+      <c r="M5" s="15">
+        <v>7814</v>
+      </c>
+      <c r="N5" s="17">
+        <f>I5/D5*100</f>
+        <v>71.4692867321683</v>
+      </c>
+      <c r="O5" s="17">
+        <f>J5/E5*100</f>
+        <v>73.111266402671021</v>
+      </c>
+      <c r="P5" s="17">
+        <f>K5/F5*100</f>
+        <v>73.929460914276532</v>
+      </c>
+      <c r="Q5" s="17">
+        <f>L5/G5*100</f>
+        <v>59.50115340253749</v>
+      </c>
+      <c r="R5" s="17">
+        <f>M5/H5*100</f>
+        <v>57.727541371158395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="33"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="15">
+        <v>12417</v>
+      </c>
+      <c r="E6" s="15">
+        <v>11963</v>
+      </c>
+      <c r="F6" s="15">
+        <v>11498</v>
+      </c>
+      <c r="G6" s="15">
+        <v>13872</v>
+      </c>
+      <c r="H6" s="15">
+        <v>13536</v>
+      </c>
+      <c r="I6" s="15">
+        <v>9295</v>
+      </c>
+      <c r="J6" s="15">
+        <v>9184</v>
+      </c>
+      <c r="K6" s="15">
+        <v>8960</v>
+      </c>
+      <c r="L6" s="15">
+        <v>8254</v>
+      </c>
+      <c r="M6" s="15">
+        <v>7814</v>
+      </c>
+      <c r="N6" s="17">
+        <f>I6/D6*100</f>
+        <v>74.857050817427719</v>
+      </c>
+      <c r="O6" s="17">
+        <f>J6/E6*100</f>
+        <v>76.770040959625504</v>
+      </c>
+      <c r="P6" s="17">
+        <f>K6/F6*100</f>
+        <v>77.926595929726901</v>
+      </c>
+      <c r="Q6" s="17">
+        <f>L6/G6*100</f>
+        <v>59.50115340253749</v>
+      </c>
+      <c r="R6" s="17">
+        <f>M6/H6*100</f>
+        <v>57.727541371158395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="33"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="15">
+        <v>916</v>
+      </c>
+      <c r="E7" s="15">
+        <v>916</v>
+      </c>
+      <c r="F7" s="15">
+        <v>950</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>233</v>
+      </c>
+      <c r="J7" s="15">
+        <v>232</v>
+      </c>
+      <c r="K7" s="15">
+        <v>241</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <f>I7/D7*100</f>
+        <v>25.436681222707424</v>
+      </c>
+      <c r="O7" s="17">
+        <f>J7/E7*100</f>
+        <v>25.327510917030565</v>
+      </c>
+      <c r="P7" s="17">
+        <f>K7/F7*100</f>
+        <v>25.368421052631579</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="33"/>
+      <c r="B8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="15">
+        <v>25059</v>
+      </c>
+      <c r="E8" s="15">
+        <v>25313</v>
+      </c>
+      <c r="F8" s="15">
+        <v>26115</v>
+      </c>
+      <c r="G8" s="15">
+        <v>20239</v>
+      </c>
+      <c r="H8" s="15">
+        <v>25348</v>
+      </c>
+      <c r="I8" s="15">
+        <v>9071</v>
+      </c>
+      <c r="J8" s="15">
+        <v>9644</v>
+      </c>
+      <c r="K8" s="15">
+        <v>9651</v>
+      </c>
+      <c r="L8" s="15">
+        <v>10461</v>
+      </c>
+      <c r="M8" s="15">
+        <v>13396</v>
+      </c>
+      <c r="N8" s="17">
+        <f>I8/D8*100</f>
+        <v>36.198571371563112</v>
+      </c>
+      <c r="O8" s="17">
+        <f>J8/E8*100</f>
+        <v>38.099000513570104</v>
+      </c>
+      <c r="P8" s="17">
+        <f>K8/F8*100</f>
+        <v>36.955772544514645</v>
+      </c>
+      <c r="Q8" s="17">
+        <f>L8/G8*100</f>
+        <v>51.687336330846392</v>
+      </c>
+      <c r="R8" s="17">
+        <f>M8/H8*100</f>
+        <v>52.848350954710433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="33"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="15">
+        <v>307</v>
+      </c>
+      <c r="E9" s="15">
+        <v>298</v>
+      </c>
+      <c r="F9" s="15">
+        <v>311</v>
+      </c>
+      <c r="G9" s="15">
+        <v>281</v>
+      </c>
+      <c r="H9" s="15">
+        <v>465</v>
+      </c>
+      <c r="I9" s="15">
+        <v>237</v>
+      </c>
+      <c r="J9" s="15">
+        <v>265</v>
+      </c>
+      <c r="K9" s="15">
+        <v>273</v>
+      </c>
+      <c r="L9" s="15">
+        <v>253</v>
+      </c>
+      <c r="M9" s="15">
+        <v>274</v>
+      </c>
+      <c r="N9" s="17">
+        <f>I9/D9*100</f>
+        <v>77.198697068403916</v>
+      </c>
+      <c r="O9" s="17">
+        <f>J9/E9*100</f>
+        <v>88.926174496644293</v>
+      </c>
+      <c r="P9" s="17">
+        <f>K9/F9*100</f>
+        <v>87.781350482315119</v>
+      </c>
+      <c r="Q9" s="17">
+        <f>L9/G9*100</f>
+        <v>90.035587188612098</v>
+      </c>
+      <c r="R9" s="17">
+        <f>M9/H9*100</f>
+        <v>58.924731182795696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="33"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="15">
+        <v>16133</v>
+      </c>
+      <c r="E10" s="15">
+        <v>15887</v>
+      </c>
+      <c r="F10" s="15">
+        <v>15429</v>
+      </c>
+      <c r="G10" s="15">
+        <v>12648</v>
+      </c>
+      <c r="H10" s="15">
+        <v>15953</v>
+      </c>
+      <c r="I10" s="15">
+        <v>6774</v>
+      </c>
+      <c r="J10" s="15">
+        <v>7392</v>
+      </c>
+      <c r="K10" s="15">
+        <v>7316</v>
+      </c>
+      <c r="L10" s="15">
+        <v>7792</v>
+      </c>
+      <c r="M10" s="15">
+        <v>9677</v>
+      </c>
+      <c r="N10" s="17">
+        <f>I10/D10*100</f>
+        <v>41.988470836174301</v>
+      </c>
+      <c r="O10" s="17">
+        <f>J10/E10*100</f>
+        <v>46.528608296091143</v>
+      </c>
+      <c r="P10" s="17">
+        <f>K10/F10*100</f>
+        <v>47.417201374035905</v>
+      </c>
+      <c r="Q10" s="17">
+        <f>L10/G10*100</f>
+        <v>61.606578115117017</v>
+      </c>
+      <c r="R10" s="17">
+        <f>M10/H10*100</f>
+        <v>60.659437096470882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="33"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="15">
+        <v>8619</v>
+      </c>
+      <c r="E11" s="15">
+        <v>9128</v>
+      </c>
+      <c r="F11" s="15">
+        <v>10376</v>
+      </c>
+      <c r="G11" s="15">
+        <v>7310</v>
+      </c>
+      <c r="H11" s="15">
+        <v>8930</v>
+      </c>
+      <c r="I11" s="15">
+        <v>2059</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1987</v>
+      </c>
+      <c r="K11" s="15">
+        <v>2062</v>
+      </c>
+      <c r="L11" s="15">
+        <v>2416</v>
+      </c>
+      <c r="M11" s="15">
+        <v>3445</v>
+      </c>
+      <c r="N11" s="17">
+        <f>I11/D11*100</f>
+        <v>23.889082260122983</v>
+      </c>
+      <c r="O11" s="17">
+        <f>J11/E11*100</f>
+        <v>21.768185801928134</v>
+      </c>
+      <c r="P11" s="17">
+        <f>K11/F11*100</f>
+        <v>19.8727833461835</v>
+      </c>
+      <c r="Q11" s="17">
+        <f>L11/G11*100</f>
+        <v>33.050615595075236</v>
+      </c>
+      <c r="R11" s="17">
+        <f>M11/H11*100</f>
+        <v>38.577827547592385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="33"/>
+      <c r="B12" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="15">
+        <v>57939</v>
+      </c>
+      <c r="E12" s="15">
+        <v>53065</v>
+      </c>
+      <c r="F12" s="15">
+        <v>45280</v>
+      </c>
+      <c r="G12" s="15">
+        <v>45490</v>
+      </c>
+      <c r="H12" s="15">
+        <v>47429</v>
+      </c>
+      <c r="I12" s="15">
+        <v>29114</v>
+      </c>
+      <c r="J12" s="15">
+        <v>24738</v>
+      </c>
+      <c r="K12" s="15">
+        <v>21027</v>
+      </c>
+      <c r="L12" s="15">
+        <v>26050</v>
+      </c>
+      <c r="M12" s="15">
+        <v>27162</v>
+      </c>
+      <c r="N12" s="17">
+        <f>I12/D12*100</f>
+        <v>50.249400231277718</v>
+      </c>
+      <c r="O12" s="17">
+        <f>J12/E12*100</f>
+        <v>46.618298313389239</v>
+      </c>
+      <c r="P12" s="17">
+        <f>K12/F12*100</f>
+        <v>46.437720848056536</v>
+      </c>
+      <c r="Q12" s="17">
+        <f>L12/G12*100</f>
+        <v>57.265333040228619</v>
+      </c>
+      <c r="R12" s="17">
+        <f>M12/H12*100</f>
+        <v>57.268759619641997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="33"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="15">
+        <v>777</v>
+      </c>
+      <c r="E13" s="15">
+        <v>743</v>
+      </c>
+      <c r="F13" s="15">
+        <v>793</v>
+      </c>
+      <c r="G13" s="15">
+        <v>152</v>
+      </c>
+      <c r="H13" s="15">
+        <v>171</v>
+      </c>
+      <c r="I13" s="15">
+        <v>121</v>
+      </c>
+      <c r="J13" s="15">
+        <v>135</v>
+      </c>
+      <c r="K13" s="15">
+        <v>120</v>
+      </c>
+      <c r="L13" s="15">
+        <v>86</v>
+      </c>
+      <c r="M13" s="15">
+        <v>75</v>
+      </c>
+      <c r="N13" s="17">
+        <f>I13/D13*100</f>
+        <v>15.572715572715573</v>
+      </c>
+      <c r="O13" s="17">
+        <f>J13/E13*100</f>
+        <v>18.169582772543741</v>
+      </c>
+      <c r="P13" s="17">
+        <f>K13/F13*100</f>
+        <v>15.132408575031524</v>
+      </c>
+      <c r="Q13" s="17">
+        <f>L13/G13*100</f>
+        <v>56.578947368421048</v>
+      </c>
+      <c r="R13" s="17">
+        <f>M13/H13*100</f>
+        <v>43.859649122807014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="33"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="15">
+        <v>32746</v>
+      </c>
+      <c r="E14" s="15">
+        <v>29998</v>
+      </c>
+      <c r="F14" s="15">
+        <v>26056</v>
+      </c>
+      <c r="G14" s="15">
+        <v>23919</v>
+      </c>
+      <c r="H14" s="15">
+        <v>20753</v>
+      </c>
+      <c r="I14" s="15">
+        <v>17778</v>
+      </c>
+      <c r="J14" s="15">
+        <v>14084</v>
+      </c>
+      <c r="K14" s="15">
+        <v>12065</v>
+      </c>
+      <c r="L14" s="15">
+        <v>13709</v>
+      </c>
+      <c r="M14" s="15">
+        <v>12272</v>
+      </c>
+      <c r="N14" s="17">
+        <f>I14/D14*100</f>
+        <v>54.290600378672202</v>
+      </c>
+      <c r="O14" s="17">
+        <f>J14/E14*100</f>
+        <v>46.949796653110212</v>
+      </c>
+      <c r="P14" s="17">
+        <f>K14/F14*100</f>
+        <v>46.304114215535769</v>
+      </c>
+      <c r="Q14" s="17">
+        <f>L14/G14*100</f>
+        <v>57.314268991178565</v>
+      </c>
+      <c r="R14" s="17">
+        <f>M14/H14*100</f>
+        <v>59.133619235773139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="33"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="15">
+        <v>20162</v>
+      </c>
+      <c r="E15" s="15">
+        <v>19217</v>
+      </c>
+      <c r="F15" s="15">
+        <v>16087</v>
+      </c>
+      <c r="G15" s="15">
+        <v>18919</v>
+      </c>
+      <c r="H15" s="15">
+        <v>24023</v>
+      </c>
+      <c r="I15" s="15">
+        <v>9141</v>
+      </c>
+      <c r="J15" s="15">
+        <v>8761</v>
+      </c>
+      <c r="K15" s="15">
+        <v>7428</v>
+      </c>
+      <c r="L15" s="15">
+        <v>10664</v>
+      </c>
+      <c r="M15" s="15">
+        <v>12966</v>
+      </c>
+      <c r="N15" s="17">
+        <f>I15/D15*100</f>
+        <v>45.337764110703304</v>
+      </c>
+      <c r="O15" s="17">
+        <f>J15/E15*100</f>
+        <v>45.589842327106204</v>
+      </c>
+      <c r="P15" s="17">
+        <f>K15/F15*100</f>
+        <v>46.173929259650649</v>
+      </c>
+      <c r="Q15" s="17">
+        <f>L15/G15*100</f>
+        <v>56.36661557164755</v>
+      </c>
+      <c r="R15" s="17">
+        <f>M15/H15*100</f>
+        <v>53.973275610872918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="33"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="15">
+        <v>775</v>
+      </c>
+      <c r="E16" s="15">
+        <v>712</v>
+      </c>
+      <c r="F16" s="15">
+        <v>700</v>
+      </c>
+      <c r="G16" s="15">
+        <v>707</v>
+      </c>
+      <c r="H16" s="15">
+        <v>895</v>
+      </c>
+      <c r="I16" s="15">
+        <v>380</v>
+      </c>
+      <c r="J16" s="15">
+        <v>356</v>
+      </c>
+      <c r="K16" s="15">
+        <v>348</v>
+      </c>
+      <c r="L16" s="15">
+        <v>358</v>
+      </c>
+      <c r="M16" s="15">
+        <v>491</v>
+      </c>
+      <c r="N16" s="17">
+        <f>I16/D16*100</f>
+        <v>49.032258064516128</v>
+      </c>
+      <c r="O16" s="17">
+        <f>J16/E16*100</f>
+        <v>50</v>
+      </c>
+      <c r="P16" s="17">
+        <f>K16/F16*100</f>
+        <v>49.714285714285715</v>
+      </c>
+      <c r="Q16" s="17">
+        <f>L16/G16*100</f>
+        <v>50.636492220650645</v>
+      </c>
+      <c r="R16" s="17">
+        <f>M16/H16*100</f>
+        <v>54.86033519553073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="33"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="15">
+        <v>3479</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2396</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1644</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1793</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1587</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1694</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1402</v>
+      </c>
+      <c r="K17" s="15">
+        <v>1066</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1233</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1358</v>
+      </c>
+      <c r="N17" s="17">
+        <f>I17/D17*100</f>
+        <v>48.692152917505034</v>
+      </c>
+      <c r="O17" s="17">
+        <f>J17/E17*100</f>
+        <v>58.514190317195322</v>
+      </c>
+      <c r="P17" s="17">
+        <f>K17/F17*100</f>
+        <v>64.84184914841849</v>
+      </c>
+      <c r="Q17" s="17">
+        <f>L17/G17*100</f>
+        <v>68.767428890128286</v>
+      </c>
+      <c r="R17" s="17">
+        <f>M17/H17*100</f>
+        <v>85.57025834908633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="33"/>
+      <c r="B18" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="15">
+        <v>105001</v>
+      </c>
+      <c r="E18" s="15">
+        <v>99603</v>
+      </c>
+      <c r="F18" s="15">
+        <v>96498</v>
+      </c>
+      <c r="G18" s="15">
+        <v>86134</v>
+      </c>
+      <c r="H18" s="15">
+        <v>75546</v>
+      </c>
+      <c r="I18" s="15">
+        <v>49904</v>
+      </c>
+      <c r="J18" s="15">
+        <v>49438</v>
+      </c>
+      <c r="K18" s="15">
+        <v>48780</v>
+      </c>
+      <c r="L18" s="15">
+        <v>40351</v>
+      </c>
+      <c r="M18" s="15">
+        <v>36435</v>
+      </c>
+      <c r="N18" s="17">
+        <f>I18/D18*100</f>
+        <v>47.527166407938971</v>
+      </c>
+      <c r="O18" s="17">
+        <f>J18/E18*100</f>
+        <v>49.635051153077718</v>
+      </c>
+      <c r="P18" s="17">
+        <f>K18/F18*100</f>
+        <v>50.550270471926886</v>
+      </c>
+      <c r="Q18" s="17">
+        <f>L18/G18*100</f>
+        <v>46.846773631783037</v>
+      </c>
+      <c r="R18" s="17">
+        <f>M18/H18*100</f>
+        <v>48.228893654197442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="33"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="15">
+        <v>37417</v>
+      </c>
+      <c r="E19" s="15">
+        <v>34342</v>
+      </c>
+      <c r="F19" s="15">
+        <v>34341</v>
+      </c>
+      <c r="G19" s="15">
+        <v>25786</v>
+      </c>
+      <c r="H19" s="15">
+        <v>12126</v>
+      </c>
+      <c r="I19" s="15">
+        <v>9060</v>
+      </c>
+      <c r="J19" s="15">
+        <v>9195</v>
+      </c>
+      <c r="K19" s="15">
+        <v>8950</v>
+      </c>
+      <c r="L19" s="15">
+        <v>7937</v>
+      </c>
+      <c r="M19" s="15">
+        <v>6376</v>
+      </c>
+      <c r="N19" s="17">
+        <f>I19/D19*100</f>
+        <v>24.213592751957666</v>
+      </c>
+      <c r="O19" s="17">
+        <f>J19/E19*100</f>
+        <v>26.774794712014444</v>
+      </c>
+      <c r="P19" s="17">
+        <f>K19/F19*100</f>
+        <v>26.062141463556681</v>
+      </c>
+      <c r="Q19" s="17">
+        <f>L19/G19*100</f>
+        <v>30.780268362677422</v>
+      </c>
+      <c r="R19" s="17">
+        <f>M19/H19*100</f>
+        <v>52.581230413986482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="33"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="15">
+        <v>10408</v>
+      </c>
+      <c r="E20" s="15">
+        <v>10110</v>
+      </c>
+      <c r="F20" s="15">
+        <v>9897</v>
+      </c>
+      <c r="G20" s="15">
+        <v>9719</v>
+      </c>
+      <c r="H20" s="15">
+        <v>11933</v>
+      </c>
+      <c r="I20" s="15">
+        <v>9242</v>
+      </c>
+      <c r="J20" s="15">
+        <v>9117</v>
+      </c>
+      <c r="K20" s="15">
+        <v>8922</v>
+      </c>
+      <c r="L20" s="15">
+        <v>8361</v>
+      </c>
+      <c r="M20" s="15">
+        <v>7475</v>
+      </c>
+      <c r="N20" s="17">
+        <f>I20/D20*100</f>
+        <v>88.797079169869335</v>
+      </c>
+      <c r="O20" s="17">
+        <f>J20/E20*100</f>
+        <v>90.178041543026708</v>
+      </c>
+      <c r="P20" s="17">
+        <f>K20/F20*100</f>
+        <v>90.148529857532594</v>
+      </c>
+      <c r="Q20" s="17">
+        <f>L20/G20*100</f>
+        <v>86.027369070892064</v>
+      </c>
+      <c r="R20" s="17">
+        <f>M20/H20*100</f>
+        <v>62.641414564652642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="33"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2360</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2031</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1743</v>
+      </c>
+      <c r="G21" s="15">
+        <v>2009</v>
+      </c>
+      <c r="H21" s="15">
+        <v>2409</v>
+      </c>
+      <c r="I21" s="15">
+        <v>2095</v>
+      </c>
+      <c r="J21" s="15">
+        <v>1940</v>
+      </c>
+      <c r="K21" s="15">
+        <v>1691</v>
+      </c>
+      <c r="L21" s="15">
+        <v>1781</v>
+      </c>
+      <c r="M21" s="15">
+        <v>1805</v>
+      </c>
+      <c r="N21" s="17">
+        <f>I21/D21*100</f>
+        <v>88.771186440677965</v>
+      </c>
+      <c r="O21" s="17">
+        <f>J21/E21*100</f>
+        <v>95.519448547513548</v>
+      </c>
+      <c r="P21" s="17">
+        <f>K21/F21*100</f>
+        <v>97.0166379804934</v>
+      </c>
+      <c r="Q21" s="17">
+        <f>L21/G21*100</f>
+        <v>88.651070184171232</v>
+      </c>
+      <c r="R21" s="17">
+        <f>M21/H21*100</f>
+        <v>74.927355749273559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="33"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="15">
+        <v>54816</v>
+      </c>
+      <c r="E22" s="15">
+        <v>53120</v>
+      </c>
+      <c r="F22" s="15">
+        <v>50517</v>
+      </c>
+      <c r="G22" s="15">
+        <v>48621</v>
+      </c>
+      <c r="H22" s="15">
+        <v>49078</v>
+      </c>
+      <c r="I22" s="15">
+        <v>29507</v>
+      </c>
+      <c r="J22" s="15">
+        <v>29187</v>
+      </c>
+      <c r="K22" s="15">
+        <v>29216</v>
+      </c>
+      <c r="L22" s="15">
+        <v>22272</v>
+      </c>
+      <c r="M22" s="15">
+        <v>20779</v>
+      </c>
+      <c r="N22" s="17">
+        <f>I22/D22*100</f>
+        <v>53.829173963806184</v>
+      </c>
+      <c r="O22" s="17">
+        <f>J22/E22*100</f>
+        <v>54.945406626506021</v>
+      </c>
+      <c r="P22" s="17">
+        <f>K22/F22*100</f>
+        <v>57.833996476433683</v>
+      </c>
+      <c r="Q22" s="17">
+        <f>L22/G22*100</f>
+        <v>45.807367187017952</v>
+      </c>
+      <c r="R22" s="17">
+        <f>M22/H22*100</f>
+        <v>42.338726109458413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="14" customHeight="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="15">
+        <v>77</v>
+      </c>
+      <c r="E23" s="15">
+        <v>163</v>
+      </c>
+      <c r="F23" s="15">
+        <v>138</v>
+      </c>
+      <c r="G23" s="15">
+        <v>132</v>
+      </c>
+      <c r="H23" s="15">
+        <v>125</v>
+      </c>
+      <c r="I23" s="15">
+        <v>75</v>
+      </c>
+      <c r="J23" s="15">
+        <v>154</v>
+      </c>
+      <c r="K23" s="15">
+        <v>138</v>
+      </c>
+      <c r="L23" s="15">
+        <v>129</v>
+      </c>
+      <c r="M23" s="15">
+        <v>116</v>
+      </c>
+      <c r="N23" s="17">
+        <f>I23/D23*100</f>
+        <v>97.402597402597408</v>
+      </c>
+      <c r="O23" s="17">
+        <f>J23/E23*100</f>
+        <v>94.478527607361968</v>
+      </c>
+      <c r="P23" s="17">
+        <f>K23/F23*100</f>
+        <v>100</v>
+      </c>
+      <c r="Q23" s="17">
+        <f>L23/G23*100</f>
+        <v>97.727272727272734</v>
+      </c>
+      <c r="R23" s="17">
+        <f>M23/H23*100</f>
+        <v>92.800000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="33"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="15">
+        <v>77</v>
+      </c>
+      <c r="E24" s="15">
+        <v>163</v>
+      </c>
+      <c r="F24" s="15">
+        <v>138</v>
+      </c>
+      <c r="G24" s="15">
+        <v>132</v>
+      </c>
+      <c r="H24" s="15">
+        <v>125</v>
+      </c>
+      <c r="I24" s="15">
+        <v>75</v>
+      </c>
+      <c r="J24" s="15">
+        <v>154</v>
+      </c>
+      <c r="K24" s="15">
+        <v>138</v>
+      </c>
+      <c r="L24" s="15">
+        <v>129</v>
+      </c>
+      <c r="M24" s="15">
+        <v>116</v>
+      </c>
+      <c r="N24" s="17">
+        <f>I24/D24*100</f>
+        <v>97.402597402597408</v>
+      </c>
+      <c r="O24" s="17">
+        <f>J24/E24*100</f>
+        <v>94.478527607361968</v>
+      </c>
+      <c r="P24" s="17">
+        <f>K24/F24*100</f>
+        <v>100</v>
+      </c>
+      <c r="Q24" s="17">
+        <f>L24/G24*100</f>
+        <v>97.727272727272734</v>
+      </c>
+      <c r="R24" s="17">
+        <f>M24/H24*100</f>
+        <v>92.800000000000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="C26" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="G30" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:A24"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
